--- a/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/60/Output_2_15.xlsx
+++ b/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/60/Output_2_15.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1649.898548692494</v>
+        <v>-7512.218583872118</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2220068.892516701</v>
+        <v>2280223.653892729</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>419463.0933791241</v>
+        <v>419463.0933791245</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>11555215.17068479</v>
+        <v>11554035.21190395</v>
       </c>
     </row>
     <row r="11">
@@ -662,16 +662,16 @@
         <v>389.2437464820987</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>381.5867174954989</v>
       </c>
       <c r="E2" t="n">
-        <v>398.5576896346209</v>
+        <v>260.7840765104885</v>
       </c>
       <c r="F2" t="n">
-        <v>412.725494085322</v>
+        <v>12.725494085322</v>
       </c>
       <c r="G2" t="n">
-        <v>9.031127956876844</v>
+        <v>409.0311279568768</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -710,22 +710,22 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>221.2655964161775</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>338.6857412035168</v>
       </c>
       <c r="W2" t="n">
-        <v>122.3324980757653</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>385.5580790162737</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>392.5258019886049</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -750,13 +750,13 @@
         <v>123.1874880556995</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>118.8592197488542</v>
       </c>
       <c r="H3" t="n">
-        <v>69.98930104614972</v>
+        <v>87.41444223540508</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>48.89338144820752</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -786,7 +786,7 @@
         <v>23.6778726709161</v>
       </c>
       <c r="S3" t="n">
-        <v>133.5813703291298</v>
+        <v>0</v>
       </c>
       <c r="T3" t="n">
         <v>175.2139736830806</v>
@@ -804,7 +804,7 @@
         <v>187.4140068734885</v>
       </c>
       <c r="Y3" t="n">
-        <v>177.5210747552478</v>
+        <v>29.27276560847744</v>
       </c>
     </row>
     <row r="4">
@@ -814,10 +814,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>183.3559385043883</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>168.5030667546707</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -835,7 +835,7 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>113.1667354347866</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -871,19 +871,19 @@
         <v>233.3618613134482</v>
       </c>
       <c r="U4" t="n">
-        <v>282.5844038405181</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>263.319551727384</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>86.3307451721066</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>220.8809405715231</v>
       </c>
     </row>
     <row r="5">
@@ -896,25 +896,25 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>389.2437464820987</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>381.5867174954989</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>83.29265977128171</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>412.725494085322</v>
       </c>
       <c r="G5" t="n">
-        <v>9.031127956876844</v>
+        <v>409.0311279568768</v>
       </c>
       <c r="H5" t="n">
         <v>320.8422199291742</v>
       </c>
       <c r="I5" t="n">
-        <v>136.9537457384598</v>
+        <v>61.43857866046162</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -944,22 +944,22 @@
         <v>37.61298457733328</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>164.8484195083599</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>221.2655964161775</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>338.6857412035168</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>385.5580790162737</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -984,16 +984,16 @@
         <v>135.0820259802211</v>
       </c>
       <c r="F6" t="n">
-        <v>123.1874880556995</v>
+        <v>0</v>
       </c>
       <c r="G6" t="n">
         <v>118.8592197488542</v>
       </c>
       <c r="H6" t="n">
-        <v>87.41444223540508</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>48.89338144820752</v>
+        <v>0</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1020,13 +1020,13 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>23.6778726709161</v>
       </c>
       <c r="S6" t="n">
-        <v>0</v>
+        <v>133.5813703291298</v>
       </c>
       <c r="T6" t="n">
-        <v>147.2954742968097</v>
+        <v>152.8796059464927</v>
       </c>
       <c r="U6" t="n">
         <v>207.9625118881446</v>
@@ -1054,10 +1054,10 @@
         <v>183.3559385043883</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>168.5030667546707</v>
       </c>
       <c r="D7" t="n">
-        <v>154.0767819665104</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
@@ -1069,10 +1069,10 @@
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>153.923765528121</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>56.37305475817088</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1099,7 +1099,7 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>122.6619794737488</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
@@ -1111,16 +1111,16 @@
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>46.67456784852171</v>
+        <v>263.319551727384</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>231.7395189948467</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>220.8809405715231</v>
       </c>
     </row>
     <row r="8">
@@ -1136,19 +1136,19 @@
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>263.6388416754936</v>
+        <v>381.5867174954989</v>
       </c>
       <c r="E8" t="n">
-        <v>398.5576896346209</v>
+        <v>53.89310239051252</v>
       </c>
       <c r="F8" t="n">
-        <v>12.725494085322</v>
+        <v>412.725494085322</v>
       </c>
       <c r="G8" t="n">
-        <v>409.0311279568768</v>
+        <v>9.031127956876844</v>
       </c>
       <c r="H8" t="n">
-        <v>320.8422199291742</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>136.9537457384598</v>
@@ -1178,19 +1178,19 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>37.61298457733328</v>
       </c>
       <c r="S8" t="n">
         <v>164.8484195083599</v>
       </c>
       <c r="T8" t="n">
-        <v>221.2655964161775</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>338.6857412035168</v>
       </c>
       <c r="W8" t="n">
         <v>367.2890446813954</v>
@@ -1199,7 +1199,7 @@
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>392.5258019886049</v>
       </c>
     </row>
     <row r="9">
@@ -1288,16 +1288,16 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>183.3559385043883</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>154.0767819665104</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>154.0032240193895</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
@@ -1306,13 +1306,13 @@
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>43.93488307360154</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>131.7634811092929</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>30.07448747215907</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -1339,22 +1339,22 @@
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>200.7879229792761</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>233.3618613134482</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>282.5844038405181</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>139.1826013588429</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>231.7395189948467</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -1367,28 +1367,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>325.4114858595509</v>
+        <v>325.411485859551</v>
       </c>
       <c r="C11" t="n">
-        <v>318.1654340873667</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>310.5084051007669</v>
+        <v>310.508405100767</v>
       </c>
       <c r="E11" t="n">
-        <v>327.4793772398889</v>
+        <v>327.479377239889</v>
       </c>
       <c r="F11" t="n">
-        <v>341.64718169059</v>
+        <v>341.6471816905901</v>
       </c>
       <c r="G11" t="n">
-        <v>337.9528155621448</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>16.65730337116609</v>
       </c>
       <c r="I11" t="n">
-        <v>65.87543334372783</v>
+        <v>65.87543334372793</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1418,25 +1418,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>36.39635626561059</v>
+        <v>93.77010711362806</v>
       </c>
       <c r="T11" t="n">
-        <v>150.1872840214455</v>
+        <v>150.1872840214456</v>
       </c>
       <c r="U11" t="n">
-        <v>182.1168898750154</v>
+        <v>182.1168898750155</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>267.6074288087849</v>
       </c>
       <c r="W11" t="n">
-        <v>296.2107322866634</v>
+        <v>296.2107322866635</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>314.4797666215418</v>
       </c>
       <c r="Y11" t="n">
-        <v>321.4474895938729</v>
+        <v>321.447489593873</v>
       </c>
     </row>
     <row r="12">
@@ -1528,25 +1528,25 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>97.42475435993869</v>
+        <v>97.42475435993879</v>
       </c>
       <c r="D13" t="n">
-        <v>82.99846957177841</v>
+        <v>82.99846957177851</v>
       </c>
       <c r="E13" t="n">
-        <v>17.84530282097777</v>
+        <v>82.92491162465762</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>95.49320096681693</v>
+        <v>95.49320096681703</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>60.6851687145609</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,28 +1573,28 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>51.58366707901692</v>
       </c>
       <c r="S13" t="n">
-        <v>129.7096105845441</v>
+        <v>84.5900818397305</v>
       </c>
       <c r="T13" t="n">
-        <v>162.2835489187162</v>
+        <v>162.2835489187163</v>
       </c>
       <c r="U13" t="n">
-        <v>211.5060914457861</v>
+        <v>211.5060914457862</v>
       </c>
       <c r="V13" t="n">
-        <v>192.241239332652</v>
+        <v>192.2412393326521</v>
       </c>
       <c r="W13" t="n">
-        <v>209.4187856534022</v>
+        <v>209.4187856534023</v>
       </c>
       <c r="X13" t="n">
-        <v>160.6612066001147</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>149.8026281767912</v>
       </c>
     </row>
     <row r="14">
@@ -1604,22 +1604,22 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>325.4114858595509</v>
+        <v>325.411485859551</v>
       </c>
       <c r="C14" t="n">
-        <v>318.1654340873667</v>
+        <v>318.1654340873668</v>
       </c>
       <c r="D14" t="n">
-        <v>310.5084051007669</v>
+        <v>310.508405100767</v>
       </c>
       <c r="E14" t="n">
-        <v>327.4793772398889</v>
+        <v>327.479377239889</v>
       </c>
       <c r="F14" t="n">
-        <v>185.8563815862037</v>
+        <v>341.6471816905901</v>
       </c>
       <c r="G14" t="n">
-        <v>337.9528155621448</v>
+        <v>190.4415836376169</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -1655,25 +1655,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>93.77010711362796</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
         <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>182.1168898750154</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>267.6074288087849</v>
       </c>
       <c r="W14" t="n">
-        <v>296.2107322866634</v>
+        <v>296.2107322866635</v>
       </c>
       <c r="X14" t="n">
-        <v>314.4797666215417</v>
+        <v>314.4797666215418</v>
       </c>
       <c r="Y14" t="n">
-        <v>321.4474895938729</v>
+        <v>321.447489593873</v>
       </c>
     </row>
     <row r="15">
@@ -1762,28 +1762,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>112.2776261096563</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>97.42475435993869</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>82.92491162465753</v>
+        <v>82.92491162465764</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>61.03418791806118</v>
       </c>
       <c r="H16" t="n">
-        <v>82.84545313338897</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>60.6851687145609</v>
+        <v>60.68516871456102</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,28 +1810,28 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>51.58366707901682</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>129.7096105845441</v>
+        <v>129.7096105845442</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>162.2835489187163</v>
       </c>
       <c r="U16" t="n">
-        <v>211.5060914457861</v>
+        <v>211.5060914457862</v>
       </c>
       <c r="V16" t="n">
-        <v>71.42747548743115</v>
+        <v>192.2412393326521</v>
       </c>
       <c r="W16" t="n">
-        <v>209.4187856534022</v>
+        <v>209.4187856534023</v>
       </c>
       <c r="X16" t="n">
-        <v>160.6612066001147</v>
+        <v>160.6612066001148</v>
       </c>
       <c r="Y16" t="n">
-        <v>149.8026281767911</v>
+        <v>149.8026281767912</v>
       </c>
     </row>
     <row r="17">
@@ -1841,19 +1841,19 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>266.1298289386985</v>
+        <v>266.1298289386984</v>
       </c>
       <c r="C17" t="n">
-        <v>258.8837771665143</v>
+        <v>258.8837771665142</v>
       </c>
       <c r="D17" t="n">
         <v>251.2267481799145</v>
       </c>
       <c r="E17" t="n">
-        <v>268.1977203190365</v>
+        <v>268.1977203190364</v>
       </c>
       <c r="F17" t="n">
-        <v>282.3655247697376</v>
+        <v>282.3655247697375</v>
       </c>
       <c r="G17" t="n">
         <v>278.6711586412924</v>
@@ -1862,7 +1862,7 @@
         <v>190.4822506135898</v>
       </c>
       <c r="I17" t="n">
-        <v>6.593776422875408</v>
+        <v>6.593776422875351</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1892,25 +1892,25 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>34.48845019277553</v>
+        <v>34.48845019277547</v>
       </c>
       <c r="T17" t="n">
-        <v>90.90562710059308</v>
+        <v>90.90562710059302</v>
       </c>
       <c r="U17" t="n">
-        <v>122.835232954163</v>
+        <v>122.8352329541629</v>
       </c>
       <c r="V17" t="n">
-        <v>208.3257718879324</v>
+        <v>208.3257718879323</v>
       </c>
       <c r="W17" t="n">
-        <v>236.9290753658107</v>
+        <v>236.9290753658109</v>
       </c>
       <c r="X17" t="n">
         <v>255.1981097006893</v>
       </c>
       <c r="Y17" t="n">
-        <v>262.1658326730205</v>
+        <v>262.1658326730204</v>
       </c>
     </row>
     <row r="18">
@@ -1999,28 +1999,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>52.99596918880385</v>
+        <v>52.9959691888038</v>
       </c>
       <c r="C19" t="n">
-        <v>38.14309743908626</v>
+        <v>38.1430974390862</v>
       </c>
       <c r="D19" t="n">
-        <v>23.71681265092599</v>
+        <v>23.71681265092593</v>
       </c>
       <c r="E19" t="n">
-        <v>23.6432547038051</v>
+        <v>23.64325470380504</v>
       </c>
       <c r="F19" t="n">
-        <v>25.39270612357237</v>
+        <v>25.39270612357231</v>
       </c>
       <c r="G19" t="n">
-        <v>36.2115440459645</v>
+        <v>36.21154404596444</v>
       </c>
       <c r="H19" t="n">
-        <v>23.56379621253654</v>
+        <v>23.56379621253649</v>
       </c>
       <c r="I19" t="n">
-        <v>1.403511793708475</v>
+        <v>1.403511793708418</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2050,16 +2050,16 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>70.42795366369171</v>
+        <v>70.42795366369165</v>
       </c>
       <c r="T19" t="n">
-        <v>103.0018919978638</v>
+        <v>103.0018919978637</v>
       </c>
       <c r="U19" t="n">
-        <v>152.2244345249337</v>
+        <v>152.2244345249336</v>
       </c>
       <c r="V19" t="n">
-        <v>132.9595824117996</v>
+        <v>132.9595824117995</v>
       </c>
       <c r="W19" t="n">
         <v>150.1371287325497</v>
@@ -2068,7 +2068,7 @@
         <v>101.3795496792623</v>
       </c>
       <c r="Y19" t="n">
-        <v>90.52097125593866</v>
+        <v>90.5209712559386</v>
       </c>
     </row>
     <row r="20">
@@ -2078,28 +2078,28 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>266.1298289386986</v>
+        <v>266.1298289386993</v>
       </c>
       <c r="C20" t="n">
-        <v>258.8837771665143</v>
+        <v>258.8837771665142</v>
       </c>
       <c r="D20" t="n">
-        <v>251.2267481799146</v>
+        <v>251.2267481799145</v>
       </c>
       <c r="E20" t="n">
-        <v>268.1977203190365</v>
+        <v>268.1977203190364</v>
       </c>
       <c r="F20" t="n">
-        <v>282.3655247697376</v>
+        <v>282.3655247697375</v>
       </c>
       <c r="G20" t="n">
         <v>278.6711586412924</v>
       </c>
       <c r="H20" t="n">
-        <v>190.4822506135899</v>
+        <v>190.4822506135898</v>
       </c>
       <c r="I20" t="n">
-        <v>6.593776422875436</v>
+        <v>6.593776422875351</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2129,25 +2129,25 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>34.48845019277556</v>
+        <v>34.48845019277547</v>
       </c>
       <c r="T20" t="n">
-        <v>90.90562710059311</v>
+        <v>90.90562710059302</v>
       </c>
       <c r="U20" t="n">
-        <v>122.835232954163</v>
+        <v>122.8352329541629</v>
       </c>
       <c r="V20" t="n">
-        <v>208.3257718879324</v>
+        <v>208.3257718879323</v>
       </c>
       <c r="W20" t="n">
-        <v>236.929075365811</v>
+        <v>236.9290753658109</v>
       </c>
       <c r="X20" t="n">
         <v>255.1981097006893</v>
       </c>
       <c r="Y20" t="n">
-        <v>262.1658326730205</v>
+        <v>262.1658326730204</v>
       </c>
     </row>
     <row r="21">
@@ -2236,28 +2236,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>52.99596918880388</v>
+        <v>52.9959691888038</v>
       </c>
       <c r="C22" t="n">
-        <v>38.14309743908629</v>
+        <v>38.1430974390862</v>
       </c>
       <c r="D22" t="n">
-        <v>23.71681265092602</v>
+        <v>23.71681265092593</v>
       </c>
       <c r="E22" t="n">
-        <v>23.64325470380513</v>
+        <v>23.64325470380504</v>
       </c>
       <c r="F22" t="n">
-        <v>25.3927061235724</v>
+        <v>25.39270612357231</v>
       </c>
       <c r="G22" t="n">
-        <v>36.21154404596453</v>
+        <v>36.21154404596444</v>
       </c>
       <c r="H22" t="n">
-        <v>23.56379621253657</v>
+        <v>23.56379621253649</v>
       </c>
       <c r="I22" t="n">
-        <v>1.403511793708503</v>
+        <v>1.403511793708418</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2287,25 +2287,25 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>70.42795366369174</v>
+        <v>70.42795366369165</v>
       </c>
       <c r="T22" t="n">
-        <v>103.0018919978638</v>
+        <v>103.0018919978637</v>
       </c>
       <c r="U22" t="n">
-        <v>152.2244345249337</v>
+        <v>152.2244345249336</v>
       </c>
       <c r="V22" t="n">
-        <v>132.9595824117996</v>
+        <v>132.9595824117995</v>
       </c>
       <c r="W22" t="n">
-        <v>150.1371287325498</v>
+        <v>150.1371287325497</v>
       </c>
       <c r="X22" t="n">
         <v>101.3795496792623</v>
       </c>
       <c r="Y22" t="n">
-        <v>90.52097125593869</v>
+        <v>90.5209712559386</v>
       </c>
     </row>
     <row r="23">
@@ -2315,28 +2315,28 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>266.1298289386986</v>
+        <v>266.1298289386984</v>
       </c>
       <c r="C23" t="n">
-        <v>258.8837771665143</v>
+        <v>258.8837771665142</v>
       </c>
       <c r="D23" t="n">
-        <v>251.2267481799146</v>
+        <v>251.2267481799145</v>
       </c>
       <c r="E23" t="n">
-        <v>268.1977203190365</v>
+        <v>268.1977203190364</v>
       </c>
       <c r="F23" t="n">
-        <v>282.3655247697376</v>
+        <v>282.3655247697375</v>
       </c>
       <c r="G23" t="n">
         <v>278.6711586412924</v>
       </c>
       <c r="H23" t="n">
-        <v>190.4822506135899</v>
+        <v>190.4822506135898</v>
       </c>
       <c r="I23" t="n">
-        <v>6.593776422875436</v>
+        <v>6.593776422875351</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2366,25 +2366,25 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>34.48845019277556</v>
+        <v>34.48845019277547</v>
       </c>
       <c r="T23" t="n">
-        <v>90.90562710059311</v>
+        <v>90.90562710059302</v>
       </c>
       <c r="U23" t="n">
-        <v>122.835232954163</v>
+        <v>122.8352329541629</v>
       </c>
       <c r="V23" t="n">
-        <v>208.3257718879324</v>
+        <v>208.3257718879323</v>
       </c>
       <c r="W23" t="n">
-        <v>236.9290753658112</v>
+        <v>236.9290753658109</v>
       </c>
       <c r="X23" t="n">
         <v>255.1981097006893</v>
       </c>
       <c r="Y23" t="n">
-        <v>262.1658326730205</v>
+        <v>262.1658326730204</v>
       </c>
     </row>
     <row r="24">
@@ -2473,28 +2473,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>52.99596918880388</v>
+        <v>52.9959691888038</v>
       </c>
       <c r="C25" t="n">
-        <v>38.14309743908629</v>
+        <v>38.1430974390862</v>
       </c>
       <c r="D25" t="n">
-        <v>23.71681265092602</v>
+        <v>23.71681265092593</v>
       </c>
       <c r="E25" t="n">
-        <v>23.64325470380513</v>
+        <v>23.64325470380504</v>
       </c>
       <c r="F25" t="n">
-        <v>25.3927061235724</v>
+        <v>25.39270612357231</v>
       </c>
       <c r="G25" t="n">
-        <v>36.21154404596453</v>
+        <v>36.21154404596444</v>
       </c>
       <c r="H25" t="n">
-        <v>23.56379621253657</v>
+        <v>23.56379621253649</v>
       </c>
       <c r="I25" t="n">
-        <v>1.403511793708503</v>
+        <v>1.403511793708418</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2524,25 +2524,25 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>70.42795366369174</v>
+        <v>70.42795366369165</v>
       </c>
       <c r="T25" t="n">
-        <v>103.0018919978638</v>
+        <v>103.0018919978637</v>
       </c>
       <c r="U25" t="n">
-        <v>152.2244345249337</v>
+        <v>152.2244345249336</v>
       </c>
       <c r="V25" t="n">
-        <v>132.9595824117996</v>
+        <v>132.9595824117995</v>
       </c>
       <c r="W25" t="n">
-        <v>150.1371287325498</v>
+        <v>150.1371287325497</v>
       </c>
       <c r="X25" t="n">
         <v>101.3795496792623</v>
       </c>
       <c r="Y25" t="n">
-        <v>90.52097125593869</v>
+        <v>90.5209712559386</v>
       </c>
     </row>
     <row r="26">
@@ -2552,7 +2552,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>302.4985237799664</v>
+        <v>302.4985237799665</v>
       </c>
       <c r="C26" t="n">
         <v>295.2524720077822</v>
@@ -2561,7 +2561,7 @@
         <v>287.5954430211825</v>
       </c>
       <c r="E26" t="n">
-        <v>304.5664151603044</v>
+        <v>304.5664151603045</v>
       </c>
       <c r="F26" t="n">
         <v>318.7342196110055</v>
@@ -2573,7 +2573,7 @@
         <v>226.8509454548578</v>
       </c>
       <c r="I26" t="n">
-        <v>42.96247126414336</v>
+        <v>42.96247126414337</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2603,7 +2603,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>70.85714503404348</v>
+        <v>70.8571450340435</v>
       </c>
       <c r="T26" t="n">
         <v>127.274321941861</v>
@@ -2615,13 +2615,13 @@
         <v>244.6944667292003</v>
       </c>
       <c r="W26" t="n">
-        <v>273.2977702070789</v>
+        <v>273.297770207079</v>
       </c>
       <c r="X26" t="n">
         <v>291.5668045419573</v>
       </c>
       <c r="Y26" t="n">
-        <v>298.5345275142884</v>
+        <v>298.5345275142885</v>
       </c>
     </row>
     <row r="27">
@@ -2710,28 +2710,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>89.36466403007181</v>
+        <v>89.36466403007182</v>
       </c>
       <c r="C28" t="n">
-        <v>74.51179228035421</v>
+        <v>74.51179228035423</v>
       </c>
       <c r="D28" t="n">
-        <v>60.08550749219394</v>
+        <v>60.08550749219395</v>
       </c>
       <c r="E28" t="n">
-        <v>60.01194954507305</v>
+        <v>60.01194954507307</v>
       </c>
       <c r="F28" t="n">
-        <v>61.76140096484032</v>
+        <v>61.76140096484033</v>
       </c>
       <c r="G28" t="n">
-        <v>72.58023888723245</v>
+        <v>72.58023888723247</v>
       </c>
       <c r="H28" t="n">
-        <v>59.9324910538045</v>
+        <v>59.93249105380451</v>
       </c>
       <c r="I28" t="n">
-        <v>37.77220663497643</v>
+        <v>37.77220663497644</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,7 +2758,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>28.67070499943235</v>
+        <v>28.67070499943236</v>
       </c>
       <c r="S28" t="n">
         <v>106.7966485049597</v>
@@ -2770,13 +2770,13 @@
         <v>188.5931293662016</v>
       </c>
       <c r="V28" t="n">
-        <v>169.3282772530675</v>
+        <v>169.3282772530676</v>
       </c>
       <c r="W28" t="n">
         <v>186.5058235738177</v>
       </c>
       <c r="X28" t="n">
-        <v>137.7482445205302</v>
+        <v>137.7482445205303</v>
       </c>
       <c r="Y28" t="n">
         <v>126.8896660972066</v>
@@ -3026,28 +3026,28 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>290.1533409542119</v>
+        <v>283.7098784815731</v>
       </c>
       <c r="C32" t="n">
-        <v>282.9072891820277</v>
+        <v>276.4638267093889</v>
       </c>
       <c r="D32" t="n">
-        <v>275.2502601954279</v>
+        <v>268.8067977227891</v>
       </c>
       <c r="E32" t="n">
-        <v>292.2212323345499</v>
+        <v>285.7777698619111</v>
       </c>
       <c r="F32" t="n">
-        <v>306.389036785251</v>
+        <v>299.9455743126122</v>
       </c>
       <c r="G32" t="n">
-        <v>302.6946706568058</v>
+        <v>296.251208184167</v>
       </c>
       <c r="H32" t="n">
-        <v>214.5057626291032</v>
+        <v>208.0623001564644</v>
       </c>
       <c r="I32" t="n">
-        <v>30.61728843838883</v>
+        <v>24.17382596574997</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3077,25 +3077,25 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>58.51196220828895</v>
+        <v>52.06849973565009</v>
       </c>
       <c r="T32" t="n">
-        <v>114.9291391161065</v>
+        <v>108.4856766434676</v>
       </c>
       <c r="U32" t="n">
-        <v>146.8587449696764</v>
+        <v>140.4152824970375</v>
       </c>
       <c r="V32" t="n">
-        <v>232.3492839034458</v>
+        <v>225.905821430807</v>
       </c>
       <c r="W32" t="n">
-        <v>260.9525873813244</v>
+        <v>254.5091249086856</v>
       </c>
       <c r="X32" t="n">
-        <v>279.2216217162027</v>
+        <v>272.7781592435639</v>
       </c>
       <c r="Y32" t="n">
-        <v>286.1893446885339</v>
+        <v>279.7458822158951</v>
       </c>
     </row>
     <row r="33">
@@ -3184,28 +3184,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>77.01948120431727</v>
+        <v>70.57601873167842</v>
       </c>
       <c r="C34" t="n">
-        <v>62.16660945459968</v>
+        <v>55.72314698196082</v>
       </c>
       <c r="D34" t="n">
-        <v>47.74032466643941</v>
+        <v>41.29686219380055</v>
       </c>
       <c r="E34" t="n">
-        <v>47.66676671931852</v>
+        <v>41.22330424667966</v>
       </c>
       <c r="F34" t="n">
-        <v>49.41621813908579</v>
+        <v>42.97275566644693</v>
       </c>
       <c r="G34" t="n">
-        <v>60.23505606147792</v>
+        <v>53.79159358883906</v>
       </c>
       <c r="H34" t="n">
-        <v>47.58730822804996</v>
+        <v>41.14384575541111</v>
       </c>
       <c r="I34" t="n">
-        <v>25.42702380922189</v>
+        <v>18.98356133658304</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,28 +3232,28 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>16.32552217367781</v>
+        <v>9.882059701038955</v>
       </c>
       <c r="S34" t="n">
-        <v>94.45146567920513</v>
+        <v>88.00800320656627</v>
       </c>
       <c r="T34" t="n">
-        <v>127.0254040133772</v>
+        <v>120.5819415407384</v>
       </c>
       <c r="U34" t="n">
-        <v>176.2479465404471</v>
+        <v>169.8044840678082</v>
       </c>
       <c r="V34" t="n">
-        <v>156.983094427313</v>
+        <v>150.5396319546742</v>
       </c>
       <c r="W34" t="n">
-        <v>174.1606407480631</v>
+        <v>167.7171782754243</v>
       </c>
       <c r="X34" t="n">
-        <v>125.4030616947757</v>
+        <v>118.9595992221369</v>
       </c>
       <c r="Y34" t="n">
-        <v>114.5444832714521</v>
+        <v>108.1010207988132</v>
       </c>
     </row>
     <row r="35">
@@ -3263,13 +3263,13 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>266.1298289386985</v>
+        <v>266.1298289386986</v>
       </c>
       <c r="C35" t="n">
         <v>258.8837771665143</v>
       </c>
       <c r="D35" t="n">
-        <v>251.2267481799145</v>
+        <v>251.2267481799146</v>
       </c>
       <c r="E35" t="n">
         <v>268.1977203190365</v>
@@ -3281,10 +3281,10 @@
         <v>278.6711586412924</v>
       </c>
       <c r="H35" t="n">
-        <v>190.4822506135898</v>
+        <v>190.4822506135899</v>
       </c>
       <c r="I35" t="n">
-        <v>6.593776422875408</v>
+        <v>6.593776422875436</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3314,10 +3314,10 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>34.48845019277553</v>
+        <v>34.48845019277556</v>
       </c>
       <c r="T35" t="n">
-        <v>90.90562710059308</v>
+        <v>90.90562710059311</v>
       </c>
       <c r="U35" t="n">
         <v>122.835232954163</v>
@@ -3421,28 +3421,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>52.99596918880385</v>
+        <v>52.99596918880388</v>
       </c>
       <c r="C37" t="n">
-        <v>38.14309743908626</v>
+        <v>38.14309743908629</v>
       </c>
       <c r="D37" t="n">
-        <v>23.71681265092599</v>
+        <v>23.71681265092602</v>
       </c>
       <c r="E37" t="n">
-        <v>23.6432547038051</v>
+        <v>23.64325470380513</v>
       </c>
       <c r="F37" t="n">
-        <v>25.39270612357237</v>
+        <v>25.3927061235724</v>
       </c>
       <c r="G37" t="n">
-        <v>36.2115440459645</v>
+        <v>36.21154404596453</v>
       </c>
       <c r="H37" t="n">
-        <v>23.56379621253654</v>
+        <v>23.56379621253657</v>
       </c>
       <c r="I37" t="n">
-        <v>1.403511793708475</v>
+        <v>1.403511793708503</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3472,7 +3472,7 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>70.42795366369171</v>
+        <v>70.42795366369174</v>
       </c>
       <c r="T37" t="n">
         <v>103.0018919978638</v>
@@ -3484,13 +3484,13 @@
         <v>132.9595824117996</v>
       </c>
       <c r="W37" t="n">
-        <v>150.1371287325497</v>
+        <v>150.1371287325498</v>
       </c>
       <c r="X37" t="n">
         <v>101.3795496792623</v>
       </c>
       <c r="Y37" t="n">
-        <v>90.52097125593866</v>
+        <v>90.52097125593869</v>
       </c>
     </row>
     <row r="38">
@@ -3506,7 +3506,7 @@
         <v>258.8837771665143</v>
       </c>
       <c r="D38" t="n">
-        <v>251.2267481799145</v>
+        <v>251.2267481799146</v>
       </c>
       <c r="E38" t="n">
         <v>268.1977203190365</v>
@@ -3518,10 +3518,10 @@
         <v>278.6711586412924</v>
       </c>
       <c r="H38" t="n">
-        <v>190.4822506135898</v>
+        <v>190.4822506135899</v>
       </c>
       <c r="I38" t="n">
-        <v>6.593776422875408</v>
+        <v>6.593776422875436</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3551,10 +3551,10 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>34.48845019277553</v>
+        <v>34.48845019277556</v>
       </c>
       <c r="T38" t="n">
-        <v>90.90562710059308</v>
+        <v>90.90562710059311</v>
       </c>
       <c r="U38" t="n">
         <v>122.835232954163</v>
@@ -3658,28 +3658,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>52.99596918880385</v>
+        <v>52.99596918880388</v>
       </c>
       <c r="C40" t="n">
-        <v>38.14309743908626</v>
+        <v>38.14309743908629</v>
       </c>
       <c r="D40" t="n">
-        <v>23.71681265092599</v>
+        <v>23.71681265092602</v>
       </c>
       <c r="E40" t="n">
-        <v>23.6432547038051</v>
+        <v>23.64325470380513</v>
       </c>
       <c r="F40" t="n">
-        <v>25.39270612357237</v>
+        <v>25.3927061235724</v>
       </c>
       <c r="G40" t="n">
-        <v>36.2115440459645</v>
+        <v>36.21154404596453</v>
       </c>
       <c r="H40" t="n">
-        <v>23.56379621253654</v>
+        <v>23.56379621253657</v>
       </c>
       <c r="I40" t="n">
-        <v>1.403511793708475</v>
+        <v>1.403511793708503</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3709,7 +3709,7 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>70.42795366369171</v>
+        <v>70.42795366369174</v>
       </c>
       <c r="T40" t="n">
         <v>103.0018919978638</v>
@@ -3721,13 +3721,13 @@
         <v>132.9595824117996</v>
       </c>
       <c r="W40" t="n">
-        <v>150.1371287325497</v>
+        <v>150.1371287325498</v>
       </c>
       <c r="X40" t="n">
         <v>101.3795496792623</v>
       </c>
       <c r="Y40" t="n">
-        <v>90.52097125593866</v>
+        <v>90.52097125593869</v>
       </c>
     </row>
     <row r="41">
@@ -3737,16 +3737,16 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>266.1298289386986</v>
+        <v>266.1298289386984</v>
       </c>
       <c r="C41" t="n">
         <v>258.8837771665143</v>
       </c>
       <c r="D41" t="n">
-        <v>251.2267481799146</v>
+        <v>251.2267481799145</v>
       </c>
       <c r="E41" t="n">
-        <v>268.1977203190365</v>
+        <v>268.1977203190364</v>
       </c>
       <c r="F41" t="n">
         <v>282.3655247697376</v>
@@ -3755,10 +3755,10 @@
         <v>278.6711586412924</v>
       </c>
       <c r="H41" t="n">
-        <v>190.4822506135899</v>
+        <v>190.4822506135898</v>
       </c>
       <c r="I41" t="n">
-        <v>6.593776422875436</v>
+        <v>6.593776422875379</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3788,16 +3788,16 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>34.48845019277556</v>
+        <v>34.4884501927755</v>
       </c>
       <c r="T41" t="n">
-        <v>90.90562710059311</v>
+        <v>90.90562710059305</v>
       </c>
       <c r="U41" t="n">
-        <v>122.835232954163</v>
+        <v>122.8352329541629</v>
       </c>
       <c r="V41" t="n">
-        <v>208.3257718879324</v>
+        <v>208.3257718879323</v>
       </c>
       <c r="W41" t="n">
         <v>236.929075365811</v>
@@ -3806,7 +3806,7 @@
         <v>255.1981097006893</v>
       </c>
       <c r="Y41" t="n">
-        <v>262.1658326730205</v>
+        <v>262.1658326730204</v>
       </c>
     </row>
     <row r="42">
@@ -3895,28 +3895,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>52.99596918880388</v>
+        <v>52.99596918880383</v>
       </c>
       <c r="C43" t="n">
-        <v>38.14309743908629</v>
+        <v>38.14309743908623</v>
       </c>
       <c r="D43" t="n">
-        <v>23.71681265092602</v>
+        <v>23.71681265092596</v>
       </c>
       <c r="E43" t="n">
-        <v>23.64325470380513</v>
+        <v>23.64325470380507</v>
       </c>
       <c r="F43" t="n">
-        <v>25.3927061235724</v>
+        <v>25.39270612357234</v>
       </c>
       <c r="G43" t="n">
-        <v>36.21154404596453</v>
+        <v>36.21154404596447</v>
       </c>
       <c r="H43" t="n">
-        <v>23.56379621253657</v>
+        <v>23.56379621253652</v>
       </c>
       <c r="I43" t="n">
-        <v>1.403511793708503</v>
+        <v>1.403511793708446</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3946,25 +3946,25 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>70.42795366369174</v>
+        <v>70.42795366369168</v>
       </c>
       <c r="T43" t="n">
         <v>103.0018919978638</v>
       </c>
       <c r="U43" t="n">
-        <v>152.2244345249337</v>
+        <v>152.2244345249336</v>
       </c>
       <c r="V43" t="n">
         <v>132.9595824117996</v>
       </c>
       <c r="W43" t="n">
-        <v>150.1371287325498</v>
+        <v>150.1371287325497</v>
       </c>
       <c r="X43" t="n">
         <v>101.3795496792623</v>
       </c>
       <c r="Y43" t="n">
-        <v>90.52097125593869</v>
+        <v>90.52097125593863</v>
       </c>
     </row>
     <row r="44">
@@ -3977,7 +3977,7 @@
         <v>266.1298289386986</v>
       </c>
       <c r="C44" t="n">
-        <v>258.8837771665143</v>
+        <v>258.8837771665144</v>
       </c>
       <c r="D44" t="n">
         <v>251.2267481799146</v>
@@ -3986,16 +3986,16 @@
         <v>268.1977203190365</v>
       </c>
       <c r="F44" t="n">
-        <v>282.3655247697376</v>
+        <v>282.3655247697377</v>
       </c>
       <c r="G44" t="n">
-        <v>278.6711586412924</v>
+        <v>278.6711586412925</v>
       </c>
       <c r="H44" t="n">
         <v>190.4822506135899</v>
       </c>
       <c r="I44" t="n">
-        <v>6.593776422875436</v>
+        <v>6.593776422875493</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4025,22 +4025,22 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>34.48845019277556</v>
+        <v>34.48845019277562</v>
       </c>
       <c r="T44" t="n">
-        <v>90.90562710059311</v>
+        <v>90.90562710059316</v>
       </c>
       <c r="U44" t="n">
         <v>122.835232954163</v>
       </c>
       <c r="V44" t="n">
-        <v>208.3257718879324</v>
+        <v>208.3257718879325</v>
       </c>
       <c r="W44" t="n">
-        <v>236.929075365811</v>
+        <v>236.9290753658111</v>
       </c>
       <c r="X44" t="n">
-        <v>255.1981097006893</v>
+        <v>255.1981097006894</v>
       </c>
       <c r="Y44" t="n">
         <v>262.1658326730205</v>
@@ -4132,28 +4132,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>52.99596918880388</v>
+        <v>52.99596918880394</v>
       </c>
       <c r="C46" t="n">
-        <v>38.14309743908629</v>
+        <v>38.14309743908635</v>
       </c>
       <c r="D46" t="n">
-        <v>23.71681265092602</v>
+        <v>23.71681265092607</v>
       </c>
       <c r="E46" t="n">
-        <v>23.64325470380513</v>
+        <v>23.64325470380518</v>
       </c>
       <c r="F46" t="n">
-        <v>25.3927061235724</v>
+        <v>25.39270612357245</v>
       </c>
       <c r="G46" t="n">
-        <v>36.21154404596453</v>
+        <v>36.21154404596459</v>
       </c>
       <c r="H46" t="n">
-        <v>23.56379621253657</v>
+        <v>23.56379621253663</v>
       </c>
       <c r="I46" t="n">
-        <v>1.403511793708503</v>
+        <v>1.40351179370856</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4183,25 +4183,25 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>70.42795366369174</v>
+        <v>70.4279536636918</v>
       </c>
       <c r="T46" t="n">
-        <v>103.0018919978638</v>
+        <v>103.0018919978639</v>
       </c>
       <c r="U46" t="n">
         <v>152.2244345249337</v>
       </c>
       <c r="V46" t="n">
-        <v>132.9595824117996</v>
+        <v>132.9595824117997</v>
       </c>
       <c r="W46" t="n">
         <v>150.1371287325498</v>
       </c>
       <c r="X46" t="n">
-        <v>101.3795496792623</v>
+        <v>101.3795496792624</v>
       </c>
       <c r="Y46" t="n">
-        <v>90.52097125593869</v>
+        <v>90.52097125593875</v>
       </c>
     </row>
   </sheetData>
@@ -4304,76 +4304,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1265.271475716895</v>
+        <v>1509.554926079859</v>
       </c>
       <c r="C2" t="n">
-        <v>872.0959742198254</v>
+        <v>1116.379424582789</v>
       </c>
       <c r="D2" t="n">
-        <v>872.0959742198254</v>
+        <v>730.9382957994571</v>
       </c>
       <c r="E2" t="n">
-        <v>469.51244933637</v>
+        <v>467.5200366979535</v>
       </c>
       <c r="F2" t="n">
-        <v>52.61801086634772</v>
+        <v>454.6660022683353</v>
       </c>
       <c r="G2" t="n">
-        <v>43.49565939475495</v>
+        <v>41.50324675633848</v>
       </c>
       <c r="H2" t="n">
-        <v>43.49565939475495</v>
+        <v>41.50324675633848</v>
       </c>
       <c r="I2" t="n">
-        <v>43.49565939475495</v>
+        <v>41.50324675633848</v>
       </c>
       <c r="J2" t="n">
-        <v>188.145432303583</v>
+        <v>186.1530196651666</v>
       </c>
       <c r="K2" t="n">
-        <v>547.1277883310449</v>
+        <v>545.1353756926285</v>
       </c>
       <c r="L2" t="n">
-        <v>547.1277883310449</v>
+        <v>1038.455667411157</v>
       </c>
       <c r="M2" t="n">
-        <v>858.7445930764351</v>
+        <v>1038.455667411157</v>
       </c>
       <c r="N2" t="n">
-        <v>1386.555876713897</v>
+        <v>1102.089684652125</v>
       </c>
       <c r="O2" t="n">
-        <v>1826.595477606226</v>
+        <v>1542.129285544454</v>
       </c>
       <c r="P2" t="n">
-        <v>2174.782969737747</v>
+        <v>1890.316777675975</v>
       </c>
       <c r="Q2" t="n">
-        <v>2174.782969737747</v>
+        <v>2075.162337816924</v>
       </c>
       <c r="R2" t="n">
-        <v>2174.782969737747</v>
+        <v>2075.162337816924</v>
       </c>
       <c r="S2" t="n">
-        <v>2174.782969737747</v>
+        <v>2075.162337816924</v>
       </c>
       <c r="T2" t="n">
-        <v>2174.782969737747</v>
+        <v>1851.66173537634</v>
       </c>
       <c r="U2" t="n">
-        <v>2174.782969737747</v>
+        <v>1851.66173537634</v>
       </c>
       <c r="V2" t="n">
-        <v>2174.782969737747</v>
+        <v>1509.554926079859</v>
       </c>
       <c r="W2" t="n">
-        <v>2051.214789863237</v>
+        <v>1509.554926079859</v>
       </c>
       <c r="X2" t="n">
-        <v>1661.762184796294</v>
+        <v>1509.554926079859</v>
       </c>
       <c r="Y2" t="n">
-        <v>1265.271475716895</v>
+        <v>1509.554926079859</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4383,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>655.8134179021424</v>
+        <v>840.8692298963695</v>
       </c>
       <c r="C3" t="n">
-        <v>505.1591874622346</v>
+        <v>690.2149994564617</v>
       </c>
       <c r="D3" t="n">
-        <v>375.070220083715</v>
+        <v>560.126032077942</v>
       </c>
       <c r="E3" t="n">
-        <v>238.6237291946027</v>
+        <v>423.6795411888297</v>
       </c>
       <c r="F3" t="n">
-        <v>114.1919230777345</v>
+        <v>299.2477350719615</v>
       </c>
       <c r="G3" t="n">
-        <v>114.1919230777345</v>
+        <v>179.187917143826</v>
       </c>
       <c r="H3" t="n">
-        <v>43.49565939475495</v>
+        <v>90.89050074442689</v>
       </c>
       <c r="I3" t="n">
-        <v>43.49565939475495</v>
+        <v>41.50324675633848</v>
       </c>
       <c r="J3" t="n">
-        <v>156.6106416144823</v>
+        <v>41.50324675633848</v>
       </c>
       <c r="K3" t="n">
-        <v>156.6106416144823</v>
+        <v>41.50324675633848</v>
       </c>
       <c r="L3" t="n">
-        <v>480.0174418653859</v>
+        <v>525.0693326546517</v>
       </c>
       <c r="M3" t="n">
-        <v>1018.276226875478</v>
+        <v>1038.67201126434</v>
       </c>
       <c r="N3" t="n">
-        <v>1018.276226875478</v>
+        <v>1552.274689874029</v>
       </c>
       <c r="O3" t="n">
-        <v>1534.796509466459</v>
+        <v>2065.877368483717</v>
       </c>
       <c r="P3" t="n">
-        <v>1940.417878182857</v>
+        <v>2075.162337816924</v>
       </c>
       <c r="Q3" t="n">
-        <v>2174.782969737747</v>
+        <v>2075.162337816924</v>
       </c>
       <c r="R3" t="n">
-        <v>2150.865926635812</v>
+        <v>2051.245294714988</v>
       </c>
       <c r="S3" t="n">
-        <v>2015.935249535681</v>
+        <v>2051.245294714988</v>
       </c>
       <c r="T3" t="n">
-        <v>1838.951437734589</v>
+        <v>1874.261482913897</v>
       </c>
       <c r="U3" t="n">
-        <v>1628.888294413231</v>
+        <v>1664.198339592538</v>
       </c>
       <c r="V3" t="n">
-        <v>1406.348292784298</v>
+        <v>1441.658337963605</v>
       </c>
       <c r="W3" t="n">
-        <v>1176.231046917585</v>
+        <v>1211.541092096892</v>
       </c>
       <c r="X3" t="n">
-        <v>986.9239692675965</v>
+        <v>1022.234014446904</v>
       </c>
       <c r="Y3" t="n">
-        <v>807.6097523431038</v>
+        <v>992.6655643373308</v>
       </c>
     </row>
     <row r="4">
@@ -4462,76 +4462,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>157.8054931672667</v>
+        <v>211.7083646903493</v>
       </c>
       <c r="C4" t="n">
-        <v>157.8054931672667</v>
+        <v>41.50324675633848</v>
       </c>
       <c r="D4" t="n">
-        <v>157.8054931672667</v>
+        <v>41.50324675633848</v>
       </c>
       <c r="E4" t="n">
-        <v>157.8054931672667</v>
+        <v>41.50324675633848</v>
       </c>
       <c r="F4" t="n">
-        <v>157.8054931672667</v>
+        <v>41.50324675633848</v>
       </c>
       <c r="G4" t="n">
-        <v>157.8054931672667</v>
+        <v>41.50324675633848</v>
       </c>
       <c r="H4" t="n">
-        <v>157.8054931672667</v>
+        <v>41.50324675633848</v>
       </c>
       <c r="I4" t="n">
-        <v>43.49565939475495</v>
+        <v>41.50324675633848</v>
       </c>
       <c r="J4" t="n">
-        <v>43.49565939475495</v>
+        <v>41.50324675633848</v>
       </c>
       <c r="K4" t="n">
-        <v>125.3307005046968</v>
+        <v>123.3382878662804</v>
       </c>
       <c r="L4" t="n">
-        <v>289.4583403784966</v>
+        <v>287.4659277400801</v>
       </c>
       <c r="M4" t="n">
-        <v>475.7499187167606</v>
+        <v>473.7575060783441</v>
       </c>
       <c r="N4" t="n">
-        <v>658.9395527479699</v>
+        <v>656.9471401095534</v>
       </c>
       <c r="O4" t="n">
-        <v>821.6443197896779</v>
+        <v>819.6519071512614</v>
       </c>
       <c r="P4" t="n">
-        <v>941.5204855662564</v>
+        <v>939.52807292784</v>
       </c>
       <c r="Q4" t="n">
-        <v>944.9426819363074</v>
+        <v>942.9502692978909</v>
       </c>
       <c r="R4" t="n">
-        <v>944.9426819363074</v>
+        <v>942.9502692978909</v>
       </c>
       <c r="S4" t="n">
-        <v>944.9426819363074</v>
+        <v>942.9502692978909</v>
       </c>
       <c r="T4" t="n">
-        <v>709.2236301045415</v>
+        <v>707.231217466125</v>
       </c>
       <c r="U4" t="n">
-        <v>423.7848383464424</v>
+        <v>707.231217466125</v>
       </c>
       <c r="V4" t="n">
-        <v>157.8054931672667</v>
+        <v>707.231217466125</v>
       </c>
       <c r="W4" t="n">
-        <v>157.8054931672667</v>
+        <v>707.231217466125</v>
       </c>
       <c r="X4" t="n">
-        <v>157.8054931672667</v>
+        <v>620.0284445650072</v>
       </c>
       <c r="Y4" t="n">
-        <v>157.8054931672667</v>
+        <v>396.9163833816506</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4541,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1794.683246726788</v>
+        <v>1257.70266153597</v>
       </c>
       <c r="C5" t="n">
-        <v>1401.507745229718</v>
+        <v>1257.70266153597</v>
       </c>
       <c r="D5" t="n">
-        <v>1016.066616446386</v>
+        <v>1257.70266153597</v>
       </c>
       <c r="E5" t="n">
-        <v>931.9326166774146</v>
+        <v>1257.70266153597</v>
       </c>
       <c r="F5" t="n">
-        <v>515.0381782073923</v>
+        <v>840.8082230659473</v>
       </c>
       <c r="G5" t="n">
-        <v>505.9158267357995</v>
+        <v>427.6454675539505</v>
       </c>
       <c r="H5" t="n">
-        <v>181.8327763022901</v>
+        <v>103.5624171204411</v>
       </c>
       <c r="I5" t="n">
-        <v>43.49565939475495</v>
+        <v>41.50324675633848</v>
       </c>
       <c r="J5" t="n">
-        <v>188.145432303583</v>
+        <v>186.1530196651666</v>
       </c>
       <c r="K5" t="n">
-        <v>547.1277883310449</v>
+        <v>545.1353756926285</v>
       </c>
       <c r="L5" t="n">
-        <v>1040.448080049574</v>
+        <v>1038.455667411157</v>
       </c>
       <c r="M5" t="n">
-        <v>1578.706865059666</v>
+        <v>1102.089684652125</v>
       </c>
       <c r="N5" t="n">
-        <v>1734.743368845419</v>
+        <v>1102.089684652125</v>
       </c>
       <c r="O5" t="n">
-        <v>2174.782969737747</v>
+        <v>1542.129285544454</v>
       </c>
       <c r="P5" t="n">
-        <v>2174.782969737747</v>
+        <v>1890.316777675975</v>
       </c>
       <c r="Q5" t="n">
-        <v>2174.782969737747</v>
+        <v>2075.162337816924</v>
       </c>
       <c r="R5" t="n">
-        <v>2136.790056023269</v>
+        <v>2037.169424102446</v>
       </c>
       <c r="S5" t="n">
-        <v>2136.790056023269</v>
+        <v>1870.655869043496</v>
       </c>
       <c r="T5" t="n">
-        <v>2136.790056023269</v>
+        <v>1647.155266602913</v>
       </c>
       <c r="U5" t="n">
-        <v>2136.790056023269</v>
+        <v>1647.155266602913</v>
       </c>
       <c r="V5" t="n">
-        <v>1794.683246726788</v>
+        <v>1647.155266602913</v>
       </c>
       <c r="W5" t="n">
-        <v>1794.683246726788</v>
+        <v>1647.155266602913</v>
       </c>
       <c r="X5" t="n">
-        <v>1794.683246726788</v>
+        <v>1257.70266153597</v>
       </c>
       <c r="Y5" t="n">
-        <v>1794.683246726788</v>
+        <v>1257.70266153597</v>
       </c>
     </row>
     <row r="6">
@@ -4620,76 +4620,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>842.8616425347859</v>
+        <v>578.7527533920138</v>
       </c>
       <c r="C6" t="n">
-        <v>692.2074120948781</v>
+        <v>428.098522952106</v>
       </c>
       <c r="D6" t="n">
-        <v>562.1184447163585</v>
+        <v>298.0095555735863</v>
       </c>
       <c r="E6" t="n">
-        <v>425.6719538272462</v>
+        <v>161.563064684474</v>
       </c>
       <c r="F6" t="n">
-        <v>301.240147710378</v>
+        <v>161.563064684474</v>
       </c>
       <c r="G6" t="n">
-        <v>181.1803297822424</v>
+        <v>41.50324675633848</v>
       </c>
       <c r="H6" t="n">
-        <v>92.88291338284336</v>
+        <v>41.50324675633848</v>
       </c>
       <c r="I6" t="n">
-        <v>43.49565939475495</v>
+        <v>41.50324675633848</v>
       </c>
       <c r="J6" t="n">
-        <v>156.6106416144823</v>
+        <v>41.50324675633848</v>
       </c>
       <c r="K6" t="n">
-        <v>476.3497876767088</v>
+        <v>361.2423928185649</v>
       </c>
       <c r="L6" t="n">
-        <v>959.915873575022</v>
+        <v>361.2423928185649</v>
       </c>
       <c r="M6" t="n">
-        <v>1498.174658585114</v>
+        <v>642.3356118811491</v>
       </c>
       <c r="N6" t="n">
-        <v>1534.796509466459</v>
+        <v>1155.938290490838</v>
       </c>
       <c r="O6" t="n">
-        <v>1534.796509466459</v>
+        <v>1669.540969100526</v>
       </c>
       <c r="P6" t="n">
-        <v>1940.417878182857</v>
+        <v>2075.162337816924</v>
       </c>
       <c r="Q6" t="n">
-        <v>2174.782969737747</v>
+        <v>2075.162337816924</v>
       </c>
       <c r="R6" t="n">
-        <v>2174.782969737747</v>
+        <v>2051.245294714988</v>
       </c>
       <c r="S6" t="n">
-        <v>2174.782969737747</v>
+        <v>1916.314617614857</v>
       </c>
       <c r="T6" t="n">
-        <v>2025.999662367233</v>
+        <v>1761.89077322446</v>
       </c>
       <c r="U6" t="n">
-        <v>1815.936519045874</v>
+        <v>1551.827629903102</v>
       </c>
       <c r="V6" t="n">
-        <v>1593.396517416941</v>
+        <v>1329.287628274169</v>
       </c>
       <c r="W6" t="n">
-        <v>1363.279271550228</v>
+        <v>1099.170382407456</v>
       </c>
       <c r="X6" t="n">
-        <v>1173.97219390024</v>
+        <v>909.8633047574679</v>
       </c>
       <c r="Y6" t="n">
-        <v>994.6579769757473</v>
+        <v>730.5490878329751</v>
       </c>
     </row>
     <row r="7">
@@ -4699,76 +4699,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>354.6073235307462</v>
+        <v>268.6508442440572</v>
       </c>
       <c r="C7" t="n">
-        <v>354.6073235307462</v>
+        <v>98.44572631004644</v>
       </c>
       <c r="D7" t="n">
-        <v>198.974210433261</v>
+        <v>98.44572631004644</v>
       </c>
       <c r="E7" t="n">
-        <v>198.974210433261</v>
+        <v>98.44572631004644</v>
       </c>
       <c r="F7" t="n">
-        <v>198.974210433261</v>
+        <v>98.44572631004644</v>
       </c>
       <c r="G7" t="n">
-        <v>198.974210433261</v>
+        <v>98.44572631004644</v>
       </c>
       <c r="H7" t="n">
-        <v>43.49565939475495</v>
+        <v>98.44572631004644</v>
       </c>
       <c r="I7" t="n">
-        <v>43.49565939475495</v>
+        <v>41.50324675633848</v>
       </c>
       <c r="J7" t="n">
-        <v>43.49565939475495</v>
+        <v>41.50324675633848</v>
       </c>
       <c r="K7" t="n">
-        <v>125.3307005046968</v>
+        <v>123.3382878662804</v>
       </c>
       <c r="L7" t="n">
-        <v>289.4583403784966</v>
+        <v>287.4659277400801</v>
       </c>
       <c r="M7" t="n">
-        <v>475.7499187167606</v>
+        <v>473.7575060783441</v>
       </c>
       <c r="N7" t="n">
-        <v>658.9395527479699</v>
+        <v>656.9471401095534</v>
       </c>
       <c r="O7" t="n">
-        <v>821.6443197896779</v>
+        <v>819.6519071512614</v>
       </c>
       <c r="P7" t="n">
-        <v>941.5204855662564</v>
+        <v>939.52807292784</v>
       </c>
       <c r="Q7" t="n">
-        <v>944.9426819363074</v>
+        <v>942.9502692978909</v>
       </c>
       <c r="R7" t="n">
-        <v>821.0416925688844</v>
+        <v>942.9502692978909</v>
       </c>
       <c r="S7" t="n">
-        <v>821.0416925688844</v>
+        <v>942.9502692978909</v>
       </c>
       <c r="T7" t="n">
-        <v>821.0416925688844</v>
+        <v>942.9502692978909</v>
       </c>
       <c r="U7" t="n">
-        <v>821.0416925688844</v>
+        <v>942.9502692978909</v>
       </c>
       <c r="V7" t="n">
-        <v>773.8956644390645</v>
+        <v>676.9709241187152</v>
       </c>
       <c r="W7" t="n">
-        <v>773.8956644390645</v>
+        <v>676.9709241187152</v>
       </c>
       <c r="X7" t="n">
-        <v>539.8153422220475</v>
+        <v>676.9709241187152</v>
       </c>
       <c r="Y7" t="n">
-        <v>539.8153422220475</v>
+        <v>453.8588629353585</v>
       </c>
     </row>
     <row r="8">
@@ -4778,22 +4778,22 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1604.635312545935</v>
+        <v>1051.54548289616</v>
       </c>
       <c r="C8" t="n">
-        <v>1604.635312545935</v>
+        <v>1051.54548289616</v>
       </c>
       <c r="D8" t="n">
-        <v>1338.333452267659</v>
+        <v>666.1043541128277</v>
       </c>
       <c r="E8" t="n">
-        <v>935.7499273842031</v>
+        <v>611.6668769506938</v>
       </c>
       <c r="F8" t="n">
-        <v>922.895892954585</v>
+        <v>194.7724384806716</v>
       </c>
       <c r="G8" t="n">
-        <v>509.7331374425881</v>
+        <v>185.6500870090788</v>
       </c>
       <c r="H8" t="n">
         <v>185.6500870090788</v>
@@ -4805,49 +4805,49 @@
         <v>47.31297010154361</v>
       </c>
       <c r="K8" t="n">
-        <v>47.31297010154361</v>
+        <v>406.2953261290054</v>
       </c>
       <c r="L8" t="n">
-        <v>540.6332618200724</v>
+        <v>899.6156178475343</v>
       </c>
       <c r="M8" t="n">
-        <v>1086.634161864653</v>
+        <v>1445.616517892115</v>
       </c>
       <c r="N8" t="n">
-        <v>1614.445445502115</v>
+        <v>1973.427801529577</v>
       </c>
       <c r="O8" t="n">
-        <v>2054.485046394444</v>
+        <v>1973.427801529577</v>
       </c>
       <c r="P8" t="n">
-        <v>2365.64850507718</v>
+        <v>2180.802944936232</v>
       </c>
       <c r="Q8" t="n">
         <v>2365.64850507718</v>
       </c>
       <c r="R8" t="n">
-        <v>2365.64850507718</v>
+        <v>2327.655591362702</v>
       </c>
       <c r="S8" t="n">
-        <v>2199.134950018231</v>
+        <v>2161.142036303753</v>
       </c>
       <c r="T8" t="n">
-        <v>1975.634347577648</v>
+        <v>2161.142036303753</v>
       </c>
       <c r="U8" t="n">
-        <v>1975.634347577648</v>
+        <v>2161.142036303753</v>
       </c>
       <c r="V8" t="n">
-        <v>1975.634347577648</v>
+        <v>1819.035227007271</v>
       </c>
       <c r="W8" t="n">
-        <v>1604.635312545935</v>
+        <v>1448.036191975559</v>
       </c>
       <c r="X8" t="n">
-        <v>1604.635312545935</v>
+        <v>1448.036191975559</v>
       </c>
       <c r="Y8" t="n">
-        <v>1604.635312545935</v>
+        <v>1051.54548289616</v>
       </c>
     </row>
     <row r="9">
@@ -4881,16 +4881,16 @@
         <v>47.31297010154367</v>
       </c>
       <c r="J9" t="n">
-        <v>47.31297010154367</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="K9" t="n">
-        <v>367.0521161637701</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="L9" t="n">
-        <v>850.6182020620834</v>
+        <v>530.8790559998569</v>
       </c>
       <c r="M9" t="n">
-        <v>1209.141762214911</v>
+        <v>623.6437572083089</v>
       </c>
       <c r="N9" t="n">
         <v>1209.141762214911</v>
@@ -4936,28 +4936,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>224.7860652357804</v>
+        <v>388.8831655137244</v>
       </c>
       <c r="C10" t="n">
-        <v>224.7860652357804</v>
+        <v>388.8831655137244</v>
       </c>
       <c r="D10" t="n">
-        <v>224.7860652357804</v>
+        <v>233.2500524162392</v>
       </c>
       <c r="E10" t="n">
-        <v>224.7860652357804</v>
+        <v>77.69124027544166</v>
       </c>
       <c r="F10" t="n">
-        <v>224.7860652357804</v>
+        <v>77.69124027544166</v>
       </c>
       <c r="G10" t="n">
-        <v>224.7860652357804</v>
+        <v>77.69124027544166</v>
       </c>
       <c r="H10" t="n">
-        <v>180.4073954644657</v>
+        <v>77.69124027544166</v>
       </c>
       <c r="I10" t="n">
-        <v>47.31297010154361</v>
+        <v>77.69124027544166</v>
       </c>
       <c r="J10" t="n">
         <v>47.31297010154361</v>
@@ -4987,25 +4987,25 @@
         <v>948.7599926430961</v>
       </c>
       <c r="S10" t="n">
-        <v>745.9439088256454</v>
+        <v>948.7599926430961</v>
       </c>
       <c r="T10" t="n">
-        <v>510.2248569938795</v>
+        <v>948.7599926430961</v>
       </c>
       <c r="U10" t="n">
-        <v>224.7860652357804</v>
+        <v>948.7599926430961</v>
       </c>
       <c r="V10" t="n">
-        <v>224.7860652357804</v>
+        <v>808.1715064220426</v>
       </c>
       <c r="W10" t="n">
-        <v>224.7860652357804</v>
+        <v>808.1715064220426</v>
       </c>
       <c r="X10" t="n">
-        <v>224.7860652357804</v>
+        <v>574.0911842050257</v>
       </c>
       <c r="Y10" t="n">
-        <v>224.7860652357804</v>
+        <v>574.0911842050257</v>
       </c>
     </row>
     <row r="11">
@@ -5015,25 +5015,25 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1780.935942880364</v>
+        <v>1135.01579512446</v>
       </c>
       <c r="C11" t="n">
-        <v>1459.556716529488</v>
+        <v>1135.01579512446</v>
       </c>
       <c r="D11" t="n">
-        <v>1145.91186289235</v>
+        <v>821.370941487321</v>
       </c>
       <c r="E11" t="n">
-        <v>815.1246131550879</v>
+        <v>490.5836917500596</v>
       </c>
       <c r="F11" t="n">
-        <v>470.0264498312595</v>
+        <v>145.4855284262312</v>
       </c>
       <c r="G11" t="n">
-        <v>128.6599694654568</v>
+        <v>145.4855284262312</v>
       </c>
       <c r="H11" t="n">
-        <v>128.6599694654568</v>
+        <v>128.6599694654569</v>
       </c>
       <c r="I11" t="n">
         <v>62.11912770411553</v>
@@ -5066,25 +5066,25 @@
         <v>3105.956385205776</v>
       </c>
       <c r="S11" t="n">
-        <v>3069.192388977887</v>
+        <v>3011.239105293021</v>
       </c>
       <c r="T11" t="n">
-        <v>2917.488061683497</v>
+        <v>2859.534777998631</v>
       </c>
       <c r="U11" t="n">
-        <v>2733.53160726429</v>
+        <v>2675.578323579424</v>
       </c>
       <c r="V11" t="n">
-        <v>2733.53160726429</v>
+        <v>2405.267789429136</v>
       </c>
       <c r="W11" t="n">
-        <v>2434.328847378772</v>
+        <v>2106.065029543617</v>
       </c>
       <c r="X11" t="n">
-        <v>2434.328847378772</v>
+        <v>1788.408699622868</v>
       </c>
       <c r="Y11" t="n">
-        <v>2109.634413445567</v>
+        <v>1463.714265689663</v>
       </c>
     </row>
     <row r="12">
@@ -5118,25 +5118,25 @@
         <v>62.11912770411553</v>
       </c>
       <c r="J12" t="n">
-        <v>175.2341099238429</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="K12" t="n">
-        <v>494.9732559860694</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="L12" t="n">
-        <v>978.5393418843826</v>
+        <v>545.6852136024288</v>
       </c>
       <c r="M12" t="n">
-        <v>978.5393418843826</v>
+        <v>1173.45686322911</v>
       </c>
       <c r="N12" t="n">
-        <v>1634.317313094942</v>
+        <v>1829.234834439669</v>
       </c>
       <c r="O12" t="n">
-        <v>1740.468202408463</v>
+        <v>2345.75511703065</v>
       </c>
       <c r="P12" t="n">
-        <v>2146.089571124861</v>
+        <v>2380.454662679751</v>
       </c>
       <c r="Q12" t="n">
         <v>2380.454662679751</v>
@@ -5173,76 +5173,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>420.1462958193404</v>
+        <v>424.5851241921882</v>
       </c>
       <c r="C13" t="n">
-        <v>321.7374530315235</v>
+        <v>326.1762814043713</v>
       </c>
       <c r="D13" t="n">
-        <v>237.9006150802322</v>
+        <v>242.3394434530798</v>
       </c>
       <c r="E13" t="n">
-        <v>219.8750566752043</v>
+        <v>158.5769064584762</v>
       </c>
       <c r="F13" t="n">
-        <v>219.8750566752043</v>
+        <v>158.5769064584762</v>
       </c>
       <c r="G13" t="n">
-        <v>123.4172779208437</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="H13" t="n">
-        <v>123.4172779208437</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="I13" t="n">
         <v>62.11912770411553</v>
       </c>
       <c r="J13" t="n">
-        <v>102.7129143774627</v>
+        <v>102.7129143774626</v>
       </c>
       <c r="K13" t="n">
-        <v>254.9154847581892</v>
+        <v>254.9154847581891</v>
       </c>
       <c r="L13" t="n">
-        <v>489.4106539027737</v>
+        <v>489.4106539027734</v>
       </c>
       <c r="M13" t="n">
-        <v>746.0697615118224</v>
+        <v>746.069761511822</v>
       </c>
       <c r="N13" t="n">
-        <v>999.6269248138162</v>
+        <v>999.6269248138158</v>
       </c>
       <c r="O13" t="n">
-        <v>1232.699221126309</v>
+        <v>1232.699221126308</v>
       </c>
       <c r="P13" t="n">
         <v>1422.942916173672</v>
       </c>
       <c r="Q13" t="n">
-        <v>1496.732641814508</v>
+        <v>1496.732641814507</v>
       </c>
       <c r="R13" t="n">
-        <v>1496.732641814508</v>
+        <v>1444.627927593278</v>
       </c>
       <c r="S13" t="n">
-        <v>1365.712833143251</v>
+        <v>1359.183400482439</v>
       </c>
       <c r="T13" t="n">
-        <v>1201.790056457679</v>
+        <v>1195.260623796867</v>
       </c>
       <c r="U13" t="n">
-        <v>988.1475398457737</v>
+        <v>981.6181071849616</v>
       </c>
       <c r="V13" t="n">
-        <v>793.9644698127918</v>
+        <v>787.4350371519796</v>
       </c>
       <c r="W13" t="n">
-        <v>582.4303428901634</v>
+        <v>575.9009102293511</v>
       </c>
       <c r="X13" t="n">
-        <v>420.1462958193404</v>
+        <v>575.9009102293511</v>
       </c>
       <c r="Y13" t="n">
-        <v>420.1462958193404</v>
+        <v>424.5851241921882</v>
       </c>
     </row>
     <row r="14">
@@ -5252,19 +5252,19 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1557.030656569137</v>
+        <v>1565.393856750812</v>
       </c>
       <c r="C14" t="n">
-        <v>1235.651430218262</v>
+        <v>1244.014630399937</v>
       </c>
       <c r="D14" t="n">
-        <v>922.0065765811232</v>
+        <v>930.3697767627983</v>
       </c>
       <c r="E14" t="n">
-        <v>591.2193268438616</v>
+        <v>599.5825270255366</v>
       </c>
       <c r="F14" t="n">
-        <v>403.4856080699184</v>
+        <v>254.4843637017084</v>
       </c>
       <c r="G14" t="n">
         <v>62.11912770411553</v>
@@ -5288,7 +5288,7 @@
         <v>1605.072448403515</v>
       </c>
       <c r="N14" t="n">
-        <v>2132.883732040977</v>
+        <v>2132.883732040978</v>
       </c>
       <c r="O14" t="n">
         <v>2572.923332933306</v>
@@ -5303,25 +5303,25 @@
         <v>3105.956385205776</v>
       </c>
       <c r="S14" t="n">
-        <v>3011.239105293021</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="T14" t="n">
-        <v>3011.239105293021</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="U14" t="n">
-        <v>2827.282650873813</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="V14" t="n">
-        <v>2827.282650873813</v>
+        <v>2835.645851055489</v>
       </c>
       <c r="W14" t="n">
-        <v>2528.079890988294</v>
+        <v>2536.44309116997</v>
       </c>
       <c r="X14" t="n">
-        <v>2210.423561067545</v>
+        <v>2218.78676124922</v>
       </c>
       <c r="Y14" t="n">
-        <v>1885.72912713434</v>
+        <v>1894.092327316015</v>
       </c>
     </row>
     <row r="15">
@@ -5364,13 +5364,13 @@
         <v>978.5393418843826</v>
       </c>
       <c r="M15" t="n">
-        <v>1223.947919817482</v>
+        <v>1606.310991511064</v>
       </c>
       <c r="N15" t="n">
-        <v>1223.947919817482</v>
+        <v>1629.56928853388</v>
       </c>
       <c r="O15" t="n">
-        <v>1740.468202408463</v>
+        <v>2146.089571124861</v>
       </c>
       <c r="P15" t="n">
         <v>2146.089571124861</v>
@@ -5410,76 +5410,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>389.2709335955763</v>
+        <v>268.8305097821763</v>
       </c>
       <c r="C16" t="n">
-        <v>290.8620908077594</v>
+        <v>268.8305097821763</v>
       </c>
       <c r="D16" t="n">
-        <v>290.8620908077594</v>
+        <v>268.8305097821763</v>
       </c>
       <c r="E16" t="n">
-        <v>207.0995538131558</v>
+        <v>185.0679727875723</v>
       </c>
       <c r="F16" t="n">
-        <v>207.0995538131558</v>
+        <v>185.0679727875723</v>
       </c>
       <c r="G16" t="n">
-        <v>207.0995538131558</v>
+        <v>123.4172779208438</v>
       </c>
       <c r="H16" t="n">
-        <v>123.4172779208437</v>
+        <v>123.4172779208438</v>
       </c>
       <c r="I16" t="n">
         <v>62.11912770411553</v>
       </c>
       <c r="J16" t="n">
-        <v>102.7129143774627</v>
+        <v>102.7129143774623</v>
       </c>
       <c r="K16" t="n">
-        <v>254.9154847581892</v>
+        <v>254.9154847581888</v>
       </c>
       <c r="L16" t="n">
-        <v>489.4106539027737</v>
+        <v>489.4106539027731</v>
       </c>
       <c r="M16" t="n">
-        <v>746.0697615118224</v>
+        <v>746.0697615118218</v>
       </c>
       <c r="N16" t="n">
-        <v>999.6269248138162</v>
+        <v>999.6269248138155</v>
       </c>
       <c r="O16" t="n">
-        <v>1232.699221126309</v>
+        <v>1232.699221126308</v>
       </c>
       <c r="P16" t="n">
-        <v>1422.942916173673</v>
+        <v>1422.942916173671</v>
       </c>
       <c r="Q16" t="n">
-        <v>1496.732641814508</v>
+        <v>1496.732641814507</v>
       </c>
       <c r="R16" t="n">
-        <v>1444.627927593279</v>
+        <v>1496.732641814507</v>
       </c>
       <c r="S16" t="n">
-        <v>1313.608118922022</v>
+        <v>1365.71283314325</v>
       </c>
       <c r="T16" t="n">
-        <v>1313.608118922022</v>
+        <v>1201.790056457678</v>
       </c>
       <c r="U16" t="n">
-        <v>1099.965602310117</v>
+        <v>988.1475398457726</v>
       </c>
       <c r="V16" t="n">
-        <v>1027.816637171298</v>
+        <v>793.9644698127906</v>
       </c>
       <c r="W16" t="n">
-        <v>816.2825102486694</v>
+        <v>582.4303428901621</v>
       </c>
       <c r="X16" t="n">
-        <v>653.9984631778464</v>
+        <v>420.1462958193391</v>
       </c>
       <c r="Y16" t="n">
-        <v>502.6826771406836</v>
+        <v>268.8305097821763</v>
       </c>
     </row>
     <row r="17">
@@ -5489,34 +5489,34 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1614.059487414178</v>
+        <v>1614.059487414177</v>
       </c>
       <c r="C17" t="n">
-        <v>1352.560722599517</v>
+        <v>1352.560722599516</v>
       </c>
       <c r="D17" t="n">
         <v>1098.796330498593</v>
       </c>
       <c r="E17" t="n">
-        <v>827.8895422975459</v>
+        <v>827.8895422975452</v>
       </c>
       <c r="F17" t="n">
-        <v>542.6718405099322</v>
+        <v>542.6718405099316</v>
       </c>
       <c r="G17" t="n">
-        <v>261.1858216803431</v>
+        <v>261.1858216803432</v>
       </c>
       <c r="H17" t="n">
-        <v>68.7795079292422</v>
+        <v>68.77950792924234</v>
       </c>
       <c r="I17" t="n">
-        <v>62.11912770411553</v>
+        <v>62.11912770411573</v>
       </c>
       <c r="J17" t="n">
-        <v>206.7689006129436</v>
+        <v>206.7689006129438</v>
       </c>
       <c r="K17" t="n">
-        <v>565.7512566404055</v>
+        <v>565.7512566404057</v>
       </c>
       <c r="L17" t="n">
         <v>1059.071548358934</v>
@@ -5540,7 +5540,7 @@
         <v>3105.956385205776</v>
       </c>
       <c r="S17" t="n">
-        <v>3071.119566829235</v>
+        <v>3071.119566829236</v>
       </c>
       <c r="T17" t="n">
         <v>2979.295701071061</v>
@@ -5552,13 +5552,13 @@
         <v>2644.789635573994</v>
       </c>
       <c r="W17" t="n">
-        <v>2405.467337224691</v>
+        <v>2405.46733722469</v>
       </c>
       <c r="X17" t="n">
         <v>2147.691468840156</v>
       </c>
       <c r="Y17" t="n">
-        <v>1882.877496443166</v>
+        <v>1882.877496443165</v>
       </c>
     </row>
     <row r="18">
@@ -5592,25 +5592,25 @@
         <v>62.11912770411553</v>
       </c>
       <c r="J18" t="n">
-        <v>62.11912770411553</v>
+        <v>175.2341099238429</v>
       </c>
       <c r="K18" t="n">
-        <v>62.11912770411553</v>
+        <v>494.9732559860694</v>
       </c>
       <c r="L18" t="n">
-        <v>545.6852136024288</v>
+        <v>568.1699486069232</v>
       </c>
       <c r="M18" t="n">
-        <v>1173.45686322911</v>
+        <v>568.1699486069232</v>
       </c>
       <c r="N18" t="n">
-        <v>1829.234834439669</v>
+        <v>1223.947919817482</v>
       </c>
       <c r="O18" t="n">
-        <v>2345.75511703065</v>
+        <v>1740.468202408463</v>
       </c>
       <c r="P18" t="n">
-        <v>2380.454662679751</v>
+        <v>2146.089571124861</v>
       </c>
       <c r="Q18" t="n">
         <v>2380.454662679751</v>
@@ -5647,76 +5647,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>235.9319791885592</v>
+        <v>235.9319791885588</v>
       </c>
       <c r="C19" t="n">
-        <v>197.4035979369569</v>
+        <v>197.4035979369566</v>
       </c>
       <c r="D19" t="n">
-        <v>173.4472215218802</v>
+        <v>173.4472215218799</v>
       </c>
       <c r="E19" t="n">
-        <v>149.5651460634912</v>
+        <v>149.5651460634909</v>
       </c>
       <c r="F19" t="n">
-        <v>123.9159479588726</v>
+        <v>123.9159479588725</v>
       </c>
       <c r="G19" t="n">
-        <v>87.33863074072667</v>
+        <v>87.33863074072654</v>
       </c>
       <c r="H19" t="n">
-        <v>63.53681638462914</v>
+        <v>63.53681638462908</v>
       </c>
       <c r="I19" t="n">
         <v>62.11912770411553</v>
       </c>
       <c r="J19" t="n">
-        <v>161.4017547291066</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="K19" t="n">
-        <v>243.2367958390485</v>
+        <v>273.0105384364861</v>
       </c>
       <c r="L19" t="n">
-        <v>407.3644357128483</v>
+        <v>442.7178209184684</v>
       </c>
       <c r="M19" t="n">
-        <v>629.0093992567331</v>
+        <v>629.0093992567324</v>
       </c>
       <c r="N19" t="n">
-        <v>812.1990332879423</v>
+        <v>812.1990332879416</v>
       </c>
       <c r="O19" t="n">
-        <v>974.9038003296503</v>
+        <v>974.9038003296496</v>
       </c>
       <c r="P19" t="n">
-        <v>1094.779966106229</v>
+        <v>1094.779966106228</v>
       </c>
       <c r="Q19" t="n">
-        <v>1098.20216247628</v>
+        <v>1098.202162476279</v>
       </c>
       <c r="R19" t="n">
-        <v>1098.20216247628</v>
+        <v>1098.202162476279</v>
       </c>
       <c r="S19" t="n">
-        <v>1027.062815341238</v>
+        <v>1027.062815341237</v>
       </c>
       <c r="T19" t="n">
-        <v>923.0205001918803</v>
+        <v>923.0205001918796</v>
       </c>
       <c r="U19" t="n">
-        <v>769.2584451161897</v>
+        <v>769.258445116189</v>
       </c>
       <c r="V19" t="n">
-        <v>634.9558366194225</v>
+        <v>634.9558366194218</v>
       </c>
       <c r="W19" t="n">
-        <v>483.3021712330086</v>
+        <v>483.302171233008</v>
       </c>
       <c r="X19" t="n">
-        <v>380.8985856984002</v>
+        <v>380.8985856983996</v>
       </c>
       <c r="Y19" t="n">
-        <v>289.463261197452</v>
+        <v>289.4632611974515</v>
       </c>
     </row>
     <row r="20">
@@ -5726,7 +5726,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1614.059487414177</v>
+        <v>1614.059487414176</v>
       </c>
       <c r="C20" t="n">
         <v>1352.560722599516</v>
@@ -5735,7 +5735,7 @@
         <v>1098.796330498592</v>
       </c>
       <c r="E20" t="n">
-        <v>827.8895422975452</v>
+        <v>827.8895422975451</v>
       </c>
       <c r="F20" t="n">
         <v>542.6718405099314</v>
@@ -5744,16 +5744,16 @@
         <v>261.185821680343</v>
       </c>
       <c r="H20" t="n">
-        <v>68.77950792924243</v>
+        <v>68.77950792924214</v>
       </c>
       <c r="I20" t="n">
-        <v>62.11912770411573</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="J20" t="n">
-        <v>206.7689006129438</v>
+        <v>206.7689006129436</v>
       </c>
       <c r="K20" t="n">
-        <v>565.7512566404057</v>
+        <v>565.7512566404055</v>
       </c>
       <c r="L20" t="n">
         <v>1059.071548358934</v>
@@ -5777,7 +5777,7 @@
         <v>3105.956385205776</v>
       </c>
       <c r="S20" t="n">
-        <v>3071.119566829236</v>
+        <v>3071.119566829235</v>
       </c>
       <c r="T20" t="n">
         <v>2979.295701071061</v>
@@ -5795,7 +5795,7 @@
         <v>2147.691468840156</v>
       </c>
       <c r="Y20" t="n">
-        <v>1882.877496443165</v>
+        <v>1882.877496443166</v>
       </c>
     </row>
     <row r="21">
@@ -5829,19 +5829,19 @@
         <v>62.11912770411553</v>
       </c>
       <c r="J21" t="n">
-        <v>175.2341099238429</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="K21" t="n">
-        <v>494.9732559860694</v>
+        <v>381.858273766342</v>
       </c>
       <c r="L21" t="n">
-        <v>978.5393418843826</v>
+        <v>865.4243596646552</v>
       </c>
       <c r="M21" t="n">
-        <v>1084.690231197904</v>
+        <v>865.4243596646552</v>
       </c>
       <c r="N21" t="n">
-        <v>1740.468202408463</v>
+        <v>1223.947919817482</v>
       </c>
       <c r="O21" t="n">
         <v>1740.468202408463</v>
@@ -5884,25 +5884,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>235.9319791885594</v>
+        <v>235.9319791885588</v>
       </c>
       <c r="C22" t="n">
-        <v>197.4035979369571</v>
+        <v>197.4035979369566</v>
       </c>
       <c r="D22" t="n">
-        <v>173.4472215218803</v>
+        <v>173.4472215218799</v>
       </c>
       <c r="E22" t="n">
-        <v>149.5651460634913</v>
+        <v>149.5651460634909</v>
       </c>
       <c r="F22" t="n">
-        <v>123.9159479588727</v>
+        <v>123.9159479588725</v>
       </c>
       <c r="G22" t="n">
-        <v>87.33863074072673</v>
+        <v>87.33863074072654</v>
       </c>
       <c r="H22" t="n">
-        <v>63.53681638462917</v>
+        <v>63.53681638462908</v>
       </c>
       <c r="I22" t="n">
         <v>62.11912770411553</v>
@@ -5911,49 +5911,49 @@
         <v>62.11912770411553</v>
       </c>
       <c r="K22" t="n">
-        <v>273.0105384364859</v>
+        <v>143.9541688140574</v>
       </c>
       <c r="L22" t="n">
-        <v>437.1381783102858</v>
+        <v>308.0818086878572</v>
       </c>
       <c r="M22" t="n">
-        <v>623.4297566485498</v>
+        <v>494.3733870261212</v>
       </c>
       <c r="N22" t="n">
-        <v>806.6193906797589</v>
+        <v>677.5630210573304</v>
       </c>
       <c r="O22" t="n">
-        <v>969.3241577214669</v>
+        <v>969.3241577214671</v>
       </c>
       <c r="P22" t="n">
-        <v>1089.200323498045</v>
+        <v>1089.200323498046</v>
       </c>
       <c r="Q22" t="n">
-        <v>1092.622519868096</v>
+        <v>1092.622519868097</v>
       </c>
       <c r="R22" t="n">
-        <v>1098.20216247628</v>
+        <v>1098.202162476279</v>
       </c>
       <c r="S22" t="n">
-        <v>1027.062815341238</v>
+        <v>1027.062815341237</v>
       </c>
       <c r="T22" t="n">
-        <v>923.0205001918806</v>
+        <v>923.0205001918796</v>
       </c>
       <c r="U22" t="n">
-        <v>769.25844511619</v>
+        <v>769.258445116189</v>
       </c>
       <c r="V22" t="n">
-        <v>634.9558366194227</v>
+        <v>634.9558366194218</v>
       </c>
       <c r="W22" t="n">
-        <v>483.3021712330088</v>
+        <v>483.302171233008</v>
       </c>
       <c r="X22" t="n">
-        <v>380.8985856984004</v>
+        <v>380.8985856983996</v>
       </c>
       <c r="Y22" t="n">
-        <v>289.4632611974523</v>
+        <v>289.4632611974515</v>
       </c>
     </row>
     <row r="23">
@@ -5963,25 +5963,25 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1614.059487414177</v>
+        <v>1614.059487414176</v>
       </c>
       <c r="C23" t="n">
-        <v>1352.560722599516</v>
+        <v>1352.560722599515</v>
       </c>
       <c r="D23" t="n">
         <v>1098.796330498592</v>
       </c>
       <c r="E23" t="n">
-        <v>827.8895422975452</v>
+        <v>827.8895422975448</v>
       </c>
       <c r="F23" t="n">
-        <v>542.6718405099314</v>
+        <v>542.6718405099311</v>
       </c>
       <c r="G23" t="n">
-        <v>261.1858216803431</v>
+        <v>261.1858216803429</v>
       </c>
       <c r="H23" t="n">
-        <v>68.77950792924223</v>
+        <v>68.77950792924214</v>
       </c>
       <c r="I23" t="n">
         <v>62.11912770411553</v>
@@ -6011,25 +6011,25 @@
         <v>3105.956385205776</v>
       </c>
       <c r="R23" t="n">
-        <v>3105.956385205776</v>
+        <v>3105.956385205775</v>
       </c>
       <c r="S23" t="n">
-        <v>3071.119566829235</v>
+        <v>3071.119566829234</v>
       </c>
       <c r="T23" t="n">
-        <v>2979.295701071061</v>
+        <v>2979.295701071059</v>
       </c>
       <c r="U23" t="n">
-        <v>2855.219708188068</v>
+        <v>2855.219708188066</v>
       </c>
       <c r="V23" t="n">
-        <v>2644.789635573994</v>
+        <v>2644.789635573993</v>
       </c>
       <c r="W23" t="n">
-        <v>2405.46733722469</v>
+        <v>2405.467337224689</v>
       </c>
       <c r="X23" t="n">
-        <v>2147.691468840156</v>
+        <v>2147.691468840155</v>
       </c>
       <c r="Y23" t="n">
         <v>1882.877496443165</v>
@@ -6072,13 +6072,13 @@
         <v>381.858273766342</v>
       </c>
       <c r="L24" t="n">
-        <v>865.4243596646552</v>
+        <v>596.176270190801</v>
       </c>
       <c r="M24" t="n">
-        <v>865.4243596646552</v>
+        <v>1223.947919817482</v>
       </c>
       <c r="N24" t="n">
-        <v>1521.202330875214</v>
+        <v>1223.947919817482</v>
       </c>
       <c r="O24" t="n">
         <v>1740.468202408463</v>
@@ -6121,76 +6121,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>235.9319791885594</v>
+        <v>235.9319791885588</v>
       </c>
       <c r="C25" t="n">
-        <v>197.4035979369571</v>
+        <v>197.4035979369566</v>
       </c>
       <c r="D25" t="n">
-        <v>173.4472215218803</v>
+        <v>173.4472215218799</v>
       </c>
       <c r="E25" t="n">
-        <v>149.5651460634913</v>
+        <v>149.5651460634909</v>
       </c>
       <c r="F25" t="n">
-        <v>123.9159479588727</v>
+        <v>123.9159479588725</v>
       </c>
       <c r="G25" t="n">
-        <v>87.33863074072673</v>
+        <v>87.33863074072654</v>
       </c>
       <c r="H25" t="n">
-        <v>63.53681638462917</v>
+        <v>63.53681638462908</v>
       </c>
       <c r="I25" t="n">
         <v>62.11912770411553</v>
       </c>
       <c r="J25" t="n">
-        <v>67.69877031229927</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="K25" t="n">
-        <v>149.5338114222411</v>
+        <v>143.9541688140574</v>
       </c>
       <c r="L25" t="n">
-        <v>313.6614512960409</v>
+        <v>308.0818086878572</v>
       </c>
       <c r="M25" t="n">
-        <v>499.953029634305</v>
+        <v>494.3733870261212</v>
       </c>
       <c r="N25" t="n">
-        <v>683.1426636655142</v>
+        <v>677.5630210573304</v>
       </c>
       <c r="O25" t="n">
-        <v>845.8474307072222</v>
+        <v>840.2677880990384</v>
       </c>
       <c r="P25" t="n">
-        <v>1094.779966106229</v>
+        <v>960.1439538756169</v>
       </c>
       <c r="Q25" t="n">
-        <v>1098.20216247628</v>
+        <v>1090.581152532862</v>
       </c>
       <c r="R25" t="n">
-        <v>1098.20216247628</v>
+        <v>1098.202162476279</v>
       </c>
       <c r="S25" t="n">
-        <v>1027.062815341238</v>
+        <v>1027.062815341237</v>
       </c>
       <c r="T25" t="n">
-        <v>923.0205001918806</v>
+        <v>923.0205001918796</v>
       </c>
       <c r="U25" t="n">
-        <v>769.25844511619</v>
+        <v>769.258445116189</v>
       </c>
       <c r="V25" t="n">
-        <v>634.9558366194227</v>
+        <v>634.9558366194218</v>
       </c>
       <c r="W25" t="n">
-        <v>483.3021712330088</v>
+        <v>483.302171233008</v>
       </c>
       <c r="X25" t="n">
-        <v>380.8985856984004</v>
+        <v>380.8985856983996</v>
       </c>
       <c r="Y25" t="n">
-        <v>289.4632611974523</v>
+        <v>289.4632611974515</v>
       </c>
     </row>
     <row r="26">
@@ -6200,22 +6200,22 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1882.457606424153</v>
+        <v>1882.457606424152</v>
       </c>
       <c r="C26" t="n">
-        <v>1584.222786214272</v>
+        <v>1584.222786214271</v>
       </c>
       <c r="D26" t="n">
-        <v>1293.722338718128</v>
+        <v>1293.722338718127</v>
       </c>
       <c r="E26" t="n">
         <v>986.0794951218604</v>
       </c>
       <c r="F26" t="n">
-        <v>664.1257379390265</v>
+        <v>664.1257379390263</v>
       </c>
       <c r="G26" t="n">
-        <v>345.9036637142181</v>
+        <v>345.9036637142178</v>
       </c>
       <c r="H26" t="n">
         <v>116.7612945678971</v>
@@ -6224,22 +6224,22 @@
         <v>73.36485894755026</v>
       </c>
       <c r="J26" t="n">
-        <v>311.0659935859517</v>
+        <v>218.0146318563784</v>
       </c>
       <c r="K26" t="n">
-        <v>763.0997113429868</v>
+        <v>576.9969878838402</v>
       </c>
       <c r="L26" t="n">
-        <v>1286.389518343938</v>
+        <v>1163.368641331942</v>
       </c>
       <c r="M26" t="n">
-        <v>1925.441780118092</v>
+        <v>1802.420903106096</v>
       </c>
       <c r="N26" t="n">
-        <v>2453.253063755554</v>
+        <v>2423.283548473132</v>
       </c>
       <c r="O26" t="n">
-        <v>2893.292664647882</v>
+        <v>2893.292664647883</v>
       </c>
       <c r="P26" t="n">
         <v>3334.531518508978</v>
@@ -6266,7 +6266,7 @@
         <v>2784.073622420327</v>
       </c>
       <c r="X26" t="n">
-        <v>2489.561698640572</v>
+        <v>2489.561698640571</v>
       </c>
       <c r="Y26" t="n">
         <v>2188.011670848361</v>
@@ -6309,19 +6309,19 @@
         <v>393.1040050097767</v>
       </c>
       <c r="L27" t="n">
-        <v>393.1040050097767</v>
+        <v>876.6700909080899</v>
       </c>
       <c r="M27" t="n">
-        <v>579.4156798503576</v>
+        <v>876.6700909080899</v>
       </c>
       <c r="N27" t="n">
-        <v>1235.193651060917</v>
+        <v>1469.558742615807</v>
       </c>
       <c r="O27" t="n">
-        <v>1751.713933651898</v>
+        <v>1986.079025206788</v>
       </c>
       <c r="P27" t="n">
-        <v>2157.335302368295</v>
+        <v>2391.700393923186</v>
       </c>
       <c r="Q27" t="n">
         <v>2391.700393923186</v>
@@ -6358,76 +6358,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>504.330098198535</v>
+        <v>504.3300981985352</v>
       </c>
       <c r="C28" t="n">
-        <v>429.0656615517126</v>
+        <v>429.0656615517128</v>
       </c>
       <c r="D28" t="n">
-        <v>368.3732297414157</v>
+        <v>368.3732297414158</v>
       </c>
       <c r="E28" t="n">
-        <v>307.7550988878065</v>
+        <v>307.755098887807</v>
       </c>
       <c r="F28" t="n">
-        <v>245.3698453879678</v>
+        <v>245.3698453879683</v>
       </c>
       <c r="G28" t="n">
-        <v>172.0564727746017</v>
+        <v>172.056472774602</v>
       </c>
       <c r="H28" t="n">
-        <v>111.518603023284</v>
+        <v>111.5186030232841</v>
       </c>
       <c r="I28" t="n">
         <v>73.36485894755026</v>
       </c>
       <c r="J28" t="n">
-        <v>136.6424780796861</v>
+        <v>136.6424780796859</v>
       </c>
       <c r="K28" t="n">
-        <v>311.5288809192011</v>
+        <v>311.528880919201</v>
       </c>
       <c r="L28" t="n">
-        <v>568.7078825225742</v>
+        <v>568.7078825225741</v>
       </c>
       <c r="M28" t="n">
-        <v>848.0508225904116</v>
+        <v>848.0508225904115</v>
       </c>
       <c r="N28" t="n">
         <v>1124.291818351194</v>
       </c>
       <c r="O28" t="n">
-        <v>1380.047947122475</v>
+        <v>1380.047947122476</v>
       </c>
       <c r="P28" t="n">
-        <v>1592.975474628627</v>
+        <v>1592.975474628628</v>
       </c>
       <c r="Q28" t="n">
-        <v>1689.449032728251</v>
+        <v>1689.449032728252</v>
       </c>
       <c r="R28" t="n">
         <v>1660.488724648017</v>
       </c>
       <c r="S28" t="n">
-        <v>1552.613322117754</v>
+        <v>1552.613322117755</v>
       </c>
       <c r="T28" t="n">
         <v>1411.834951573177</v>
       </c>
       <c r="U28" t="n">
-        <v>1221.336841102266</v>
+        <v>1221.336841102267</v>
       </c>
       <c r="V28" t="n">
         <v>1050.298177210279</v>
       </c>
       <c r="W28" t="n">
-        <v>861.9084564286447</v>
+        <v>861.9084564286451</v>
       </c>
       <c r="X28" t="n">
-        <v>722.7688154988163</v>
+        <v>722.7688154988165</v>
       </c>
       <c r="Y28" t="n">
-        <v>594.5974356026479</v>
+        <v>594.5974356026481</v>
       </c>
     </row>
     <row r="29">
@@ -6437,22 +6437,22 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1882.457606424153</v>
+        <v>1882.457606424152</v>
       </c>
       <c r="C29" t="n">
-        <v>1584.222786214272</v>
+        <v>1584.222786214271</v>
       </c>
       <c r="D29" t="n">
-        <v>1293.722338718128</v>
+        <v>1293.722338718127</v>
       </c>
       <c r="E29" t="n">
-        <v>986.0794951218604</v>
+        <v>986.0794951218602</v>
       </c>
       <c r="F29" t="n">
-        <v>664.1257379390265</v>
+        <v>664.1257379390263</v>
       </c>
       <c r="G29" t="n">
-        <v>345.9036637142181</v>
+        <v>345.9036637142178</v>
       </c>
       <c r="H29" t="n">
         <v>116.7612945678971</v>
@@ -6461,28 +6461,28 @@
         <v>73.36485894755026</v>
       </c>
       <c r="J29" t="n">
-        <v>311.0659935859517</v>
+        <v>218.0146318563784</v>
       </c>
       <c r="K29" t="n">
-        <v>763.0997113429868</v>
+        <v>670.0483496134135</v>
       </c>
       <c r="L29" t="n">
-        <v>1349.471364791089</v>
+        <v>1256.420003061516</v>
       </c>
       <c r="M29" t="n">
-        <v>1988.523626565243</v>
+        <v>1888.204925386532</v>
       </c>
       <c r="N29" t="n">
-        <v>2609.386271932278</v>
+        <v>2509.067570753567</v>
       </c>
       <c r="O29" t="n">
-        <v>3049.425872824607</v>
+        <v>3042.158533375469</v>
       </c>
       <c r="P29" t="n">
-        <v>3397.613364956129</v>
+        <v>3483.397387236565</v>
       </c>
       <c r="Q29" t="n">
-        <v>3612.4284403795</v>
+        <v>3668.242947377513</v>
       </c>
       <c r="R29" t="n">
         <v>3668.242947377513</v>
@@ -6491,22 +6491,22 @@
         <v>3596.670073605752</v>
       </c>
       <c r="T29" t="n">
-        <v>3468.110152452357</v>
+        <v>3468.110152452356</v>
       </c>
       <c r="U29" t="n">
-        <v>3307.298104174144</v>
+        <v>3307.298104174143</v>
       </c>
       <c r="V29" t="n">
-        <v>3060.131976164851</v>
+        <v>3060.13197616485</v>
       </c>
       <c r="W29" t="n">
-        <v>2784.073622420327</v>
+        <v>2784.073622420326</v>
       </c>
       <c r="X29" t="n">
-        <v>2489.561698640572</v>
+        <v>2489.561698640571</v>
       </c>
       <c r="Y29" t="n">
-        <v>2188.011670848361</v>
+        <v>2188.01167084836</v>
       </c>
     </row>
     <row r="30">
@@ -6546,10 +6546,10 @@
         <v>506.2189872295041</v>
       </c>
       <c r="L30" t="n">
-        <v>506.2189872295041</v>
+        <v>989.7850731278173</v>
       </c>
       <c r="M30" t="n">
-        <v>579.4156798503576</v>
+        <v>1235.193651060917</v>
       </c>
       <c r="N30" t="n">
         <v>1235.193651060917</v>
@@ -6595,43 +6595,43 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>504.3300981985352</v>
+        <v>504.3300981985345</v>
       </c>
       <c r="C31" t="n">
-        <v>429.0656615517128</v>
+        <v>429.0656615517122</v>
       </c>
       <c r="D31" t="n">
-        <v>368.3732297414156</v>
+        <v>368.3732297414155</v>
       </c>
       <c r="E31" t="n">
-        <v>307.7550988878068</v>
+        <v>307.7550988878064</v>
       </c>
       <c r="F31" t="n">
-        <v>245.3698453879681</v>
+        <v>245.3698453879678</v>
       </c>
       <c r="G31" t="n">
-        <v>172.056472774602</v>
+        <v>172.0564727746018</v>
       </c>
       <c r="H31" t="n">
-        <v>111.5186030232843</v>
+        <v>111.5186030232841</v>
       </c>
       <c r="I31" t="n">
         <v>73.36485894755026</v>
       </c>
       <c r="J31" t="n">
-        <v>136.6424780796861</v>
+        <v>136.6424780796859</v>
       </c>
       <c r="K31" t="n">
-        <v>311.5288809192012</v>
+        <v>311.5288809192008</v>
       </c>
       <c r="L31" t="n">
-        <v>568.7078825225741</v>
+        <v>568.7078825225736</v>
       </c>
       <c r="M31" t="n">
-        <v>848.0508225904115</v>
+        <v>848.050822590411</v>
       </c>
       <c r="N31" t="n">
-        <v>1124.291818351194</v>
+        <v>1124.291818351193</v>
       </c>
       <c r="O31" t="n">
         <v>1380.047947122475</v>
@@ -6643,28 +6643,28 @@
         <v>1689.449032728251</v>
       </c>
       <c r="R31" t="n">
-        <v>1660.488724648017</v>
+        <v>1660.488724648016</v>
       </c>
       <c r="S31" t="n">
         <v>1552.613322117754</v>
       </c>
       <c r="T31" t="n">
-        <v>1411.834951573177</v>
+        <v>1411.834951573176</v>
       </c>
       <c r="U31" t="n">
         <v>1221.336841102266</v>
       </c>
       <c r="V31" t="n">
-        <v>1050.298177210279</v>
+        <v>1050.298177210278</v>
       </c>
       <c r="W31" t="n">
-        <v>861.908456428645</v>
+        <v>861.9084564286443</v>
       </c>
       <c r="X31" t="n">
-        <v>722.7688154988165</v>
+        <v>722.7688154988158</v>
       </c>
       <c r="Y31" t="n">
-        <v>594.5974356026481</v>
+        <v>594.5974356026475</v>
       </c>
     </row>
     <row r="32">
@@ -6674,76 +6674,76 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1791.35112422213</v>
+        <v>1743.798875918591</v>
       </c>
       <c r="C32" t="n">
-        <v>1505.586185654425</v>
+        <v>1464.542485303046</v>
       </c>
       <c r="D32" t="n">
-        <v>1227.555619800457</v>
+        <v>1193.020467401239</v>
       </c>
       <c r="E32" t="n">
-        <v>932.3826578463666</v>
+        <v>904.3560533993086</v>
       </c>
       <c r="F32" t="n">
-        <v>622.8987823057089</v>
+        <v>601.3807258108114</v>
       </c>
       <c r="G32" t="n">
-        <v>317.1465897230767</v>
+        <v>302.1370811803397</v>
       </c>
       <c r="H32" t="n">
-        <v>100.4741022189321</v>
+        <v>91.97314162835521</v>
       </c>
       <c r="I32" t="n">
-        <v>69.5475482407616</v>
+        <v>67.55513560234513</v>
       </c>
       <c r="J32" t="n">
-        <v>319.47041387666</v>
+        <v>212.2049085111732</v>
       </c>
       <c r="K32" t="n">
-        <v>678.4527699041219</v>
+        <v>571.1872645386351</v>
       </c>
       <c r="L32" t="n">
-        <v>1171.773061622651</v>
+        <v>1064.507556257164</v>
       </c>
       <c r="M32" t="n">
-        <v>1717.773961667231</v>
+        <v>1610.508456301744</v>
       </c>
       <c r="N32" t="n">
-        <v>2350.858338031763</v>
+        <v>2249.971860514189</v>
       </c>
       <c r="O32" t="n">
-        <v>2790.897938924092</v>
+        <v>2690.011461406518</v>
       </c>
       <c r="P32" t="n">
-        <v>3244.358523782684</v>
+        <v>3149.851074113022</v>
       </c>
       <c r="Q32" t="n">
-        <v>3429.204083923632</v>
+        <v>3377.756780117257</v>
       </c>
       <c r="R32" t="n">
-        <v>3477.37741203808</v>
+        <v>3377.756780117257</v>
       </c>
       <c r="S32" t="n">
-        <v>3418.274419908495</v>
+        <v>3325.162335939833</v>
       </c>
       <c r="T32" t="n">
-        <v>3302.184380397277</v>
+        <v>3215.580844380775</v>
       </c>
       <c r="U32" t="n">
-        <v>3153.84221376124</v>
+        <v>3073.747225696899</v>
       </c>
       <c r="V32" t="n">
-        <v>2919.145967394123</v>
+        <v>2845.559527281942</v>
       </c>
       <c r="W32" t="n">
-        <v>2655.557495291775</v>
+        <v>2588.479603131755</v>
       </c>
       <c r="X32" t="n">
-        <v>2373.515453154196</v>
+        <v>2312.946108946337</v>
       </c>
       <c r="Y32" t="n">
-        <v>2084.435307004162</v>
+        <v>2030.374510748462</v>
       </c>
     </row>
     <row r="33">
@@ -6753,76 +6753,76 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>868.9135313807926</v>
+        <v>866.9211187423762</v>
       </c>
       <c r="C33" t="n">
-        <v>718.2593009408848</v>
+        <v>716.2668883024684</v>
       </c>
       <c r="D33" t="n">
-        <v>588.1703335623652</v>
+        <v>586.1779209239487</v>
       </c>
       <c r="E33" t="n">
-        <v>451.7238426732528</v>
+        <v>449.7314300348364</v>
       </c>
       <c r="F33" t="n">
-        <v>327.2920365563846</v>
+        <v>325.2996239179682</v>
       </c>
       <c r="G33" t="n">
-        <v>207.2322186282491</v>
+        <v>205.2398059898326</v>
       </c>
       <c r="H33" t="n">
-        <v>118.93480222885</v>
+        <v>116.9423895904335</v>
       </c>
       <c r="I33" t="n">
-        <v>69.5475482407616</v>
+        <v>67.55513560234513</v>
       </c>
       <c r="J33" t="n">
-        <v>182.662530460489</v>
+        <v>67.55513560234513</v>
       </c>
       <c r="K33" t="n">
-        <v>502.4016765227154</v>
+        <v>387.2942816645716</v>
       </c>
       <c r="L33" t="n">
-        <v>985.9677624210287</v>
+        <v>870.8603675628849</v>
       </c>
       <c r="M33" t="n">
-        <v>1231.376340354128</v>
+        <v>870.8603675628849</v>
       </c>
       <c r="N33" t="n">
-        <v>1231.376340354128</v>
+        <v>1229.383927715712</v>
       </c>
       <c r="O33" t="n">
-        <v>1747.89662294511</v>
+        <v>1745.904210306693</v>
       </c>
       <c r="P33" t="n">
-        <v>2153.517991661507</v>
+        <v>2151.525579023091</v>
       </c>
       <c r="Q33" t="n">
-        <v>2387.883083216398</v>
+        <v>2385.890670577981</v>
       </c>
       <c r="R33" t="n">
-        <v>2363.966040114462</v>
+        <v>2361.973627476046</v>
       </c>
       <c r="S33" t="n">
-        <v>2229.035363014331</v>
+        <v>2227.042950375915</v>
       </c>
       <c r="T33" t="n">
-        <v>2052.051551213239</v>
+        <v>2050.059138574823</v>
       </c>
       <c r="U33" t="n">
-        <v>1841.988407891881</v>
+        <v>1839.995995253465</v>
       </c>
       <c r="V33" t="n">
-        <v>1619.448406262948</v>
+        <v>1617.455993624532</v>
       </c>
       <c r="W33" t="n">
-        <v>1389.331160396235</v>
+        <v>1387.338747757819</v>
       </c>
       <c r="X33" t="n">
-        <v>1200.024082746247</v>
+        <v>1198.03167010783</v>
       </c>
       <c r="Y33" t="n">
-        <v>1020.709865821754</v>
+        <v>1018.717453183338</v>
       </c>
     </row>
     <row r="34">
@@ -6832,76 +6832,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>413.2236159965123</v>
+        <v>365.6713676929726</v>
       </c>
       <c r="C34" t="n">
-        <v>350.4290609918662</v>
+        <v>309.3853606404869</v>
       </c>
       <c r="D34" t="n">
-        <v>302.2065108237455</v>
+        <v>267.6713584245268</v>
       </c>
       <c r="E34" t="n">
-        <v>254.0582616123127</v>
+        <v>226.0316571652544</v>
       </c>
       <c r="F34" t="n">
-        <v>204.1428897546503</v>
+        <v>182.6248332597524</v>
       </c>
       <c r="G34" t="n">
-        <v>143.2993987834604</v>
+        <v>128.2898902407231</v>
       </c>
       <c r="H34" t="n">
-        <v>95.23141067431906</v>
+        <v>86.73045008374214</v>
       </c>
       <c r="I34" t="n">
-        <v>69.5475482407616</v>
+        <v>67.55513560234513</v>
       </c>
       <c r="J34" t="n">
-        <v>145.0468983703944</v>
+        <v>149.4335135798904</v>
       </c>
       <c r="K34" t="n">
-        <v>332.1550322074065</v>
+        <v>231.2685546898323</v>
       </c>
       <c r="L34" t="n">
-        <v>601.5557648082765</v>
+        <v>395.396194563632</v>
       </c>
       <c r="M34" t="n">
-        <v>893.1204358736109</v>
+        <v>581.6877729018961</v>
       </c>
       <c r="N34" t="n">
-        <v>1076.31006990482</v>
+        <v>764.8774069331052</v>
       </c>
       <c r="O34" t="n">
-        <v>1239.014836946528</v>
+        <v>1039.234294549796</v>
       </c>
       <c r="P34" t="n">
-        <v>1464.164095450177</v>
+        <v>1264.910118928625</v>
       </c>
       <c r="Q34" t="n">
-        <v>1486.113615746642</v>
+        <v>1379.984435873658</v>
       </c>
       <c r="R34" t="n">
-        <v>1469.623189308584</v>
+        <v>1370.00255738776</v>
       </c>
       <c r="S34" t="n">
-        <v>1374.217668420498</v>
+        <v>1281.105584451835</v>
       </c>
       <c r="T34" t="n">
-        <v>1245.909179518097</v>
+        <v>1159.305643501594</v>
       </c>
       <c r="U34" t="n">
-        <v>1067.880950689362</v>
+        <v>987.78596262502</v>
       </c>
       <c r="V34" t="n">
-        <v>909.312168439551</v>
+        <v>835.7257283273693</v>
       </c>
       <c r="W34" t="n">
-        <v>733.3923293000933</v>
+        <v>666.3144371400721</v>
       </c>
       <c r="X34" t="n">
-        <v>606.722570012441</v>
+        <v>546.1532258045803</v>
       </c>
       <c r="Y34" t="n">
-        <v>491.021071758449</v>
+        <v>436.9602755027487</v>
       </c>
     </row>
     <row r="35">
@@ -6929,7 +6929,7 @@
         <v>261.185821680343</v>
       </c>
       <c r="H35" t="n">
-        <v>68.7795079292422</v>
+        <v>68.77950792924223</v>
       </c>
       <c r="I35" t="n">
         <v>62.11912770411553</v>
@@ -6971,10 +6971,10 @@
         <v>2855.219708188068</v>
       </c>
       <c r="V35" t="n">
-        <v>2644.789635573995</v>
+        <v>2644.789635573994</v>
       </c>
       <c r="W35" t="n">
-        <v>2405.46733722469</v>
+        <v>2405.467337224691</v>
       </c>
       <c r="X35" t="n">
         <v>2147.691468840156</v>
@@ -7014,25 +7014,25 @@
         <v>62.11912770411553</v>
       </c>
       <c r="J36" t="n">
-        <v>62.11912770411553</v>
+        <v>175.2341099238429</v>
       </c>
       <c r="K36" t="n">
-        <v>62.11912770411553</v>
+        <v>494.9732559860694</v>
       </c>
       <c r="L36" t="n">
-        <v>545.6852136024288</v>
+        <v>978.5393418843826</v>
       </c>
       <c r="M36" t="n">
-        <v>1173.45686322911</v>
+        <v>1223.947919817482</v>
       </c>
       <c r="N36" t="n">
-        <v>1458.313011372373</v>
+        <v>1223.947919817482</v>
       </c>
       <c r="O36" t="n">
-        <v>1974.833293963354</v>
+        <v>1740.468202408463</v>
       </c>
       <c r="P36" t="n">
-        <v>2380.454662679751</v>
+        <v>2146.089571124861</v>
       </c>
       <c r="Q36" t="n">
         <v>2380.454662679751</v>
@@ -7069,49 +7069,49 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>235.9319791885592</v>
+        <v>235.9319791885594</v>
       </c>
       <c r="C37" t="n">
-        <v>197.4035979369569</v>
+        <v>197.4035979369571</v>
       </c>
       <c r="D37" t="n">
-        <v>173.4472215218802</v>
+        <v>173.4472215218803</v>
       </c>
       <c r="E37" t="n">
-        <v>149.5651460634912</v>
+        <v>149.5651460634913</v>
       </c>
       <c r="F37" t="n">
-        <v>123.9159479588726</v>
+        <v>123.9159479588727</v>
       </c>
       <c r="G37" t="n">
-        <v>87.33863074072667</v>
+        <v>87.33863074072673</v>
       </c>
       <c r="H37" t="n">
-        <v>63.53681638462914</v>
+        <v>63.53681638462917</v>
       </c>
       <c r="I37" t="n">
         <v>62.11912770411553</v>
       </c>
       <c r="J37" t="n">
-        <v>67.69877031229888</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="K37" t="n">
-        <v>149.5338114222407</v>
+        <v>143.9541688140574</v>
       </c>
       <c r="L37" t="n">
-        <v>313.6614512960405</v>
+        <v>308.0818086878572</v>
       </c>
       <c r="M37" t="n">
-        <v>629.0093992567331</v>
+        <v>494.3733870261212</v>
       </c>
       <c r="N37" t="n">
-        <v>812.1990332879423</v>
+        <v>677.5630210573304</v>
       </c>
       <c r="O37" t="n">
-        <v>974.9038003296503</v>
+        <v>840.2677880990384</v>
       </c>
       <c r="P37" t="n">
-        <v>1094.779966106229</v>
+        <v>1089.200323498045</v>
       </c>
       <c r="Q37" t="n">
         <v>1098.20216247628</v>
@@ -7123,22 +7123,22 @@
         <v>1027.062815341238</v>
       </c>
       <c r="T37" t="n">
-        <v>923.0205001918803</v>
+        <v>923.0205001918806</v>
       </c>
       <c r="U37" t="n">
-        <v>769.2584451161897</v>
+        <v>769.25844511619</v>
       </c>
       <c r="V37" t="n">
-        <v>634.9558366194225</v>
+        <v>634.9558366194227</v>
       </c>
       <c r="W37" t="n">
-        <v>483.3021712330086</v>
+        <v>483.3021712330088</v>
       </c>
       <c r="X37" t="n">
-        <v>380.8985856984002</v>
+        <v>380.8985856984004</v>
       </c>
       <c r="Y37" t="n">
-        <v>289.463261197452</v>
+        <v>289.4632611974523</v>
       </c>
     </row>
     <row r="38">
@@ -7166,7 +7166,7 @@
         <v>261.1858216803431</v>
       </c>
       <c r="H38" t="n">
-        <v>68.7795079292422</v>
+        <v>68.77950792924223</v>
       </c>
       <c r="I38" t="n">
         <v>62.11912770411553</v>
@@ -7306,46 +7306,46 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>235.9319791885592</v>
+        <v>235.9319791885594</v>
       </c>
       <c r="C40" t="n">
-        <v>197.4035979369569</v>
+        <v>197.4035979369571</v>
       </c>
       <c r="D40" t="n">
-        <v>173.4472215218802</v>
+        <v>173.4472215218803</v>
       </c>
       <c r="E40" t="n">
-        <v>149.5651460634912</v>
+        <v>149.5651460634913</v>
       </c>
       <c r="F40" t="n">
-        <v>123.9159479588726</v>
+        <v>123.9159479588727</v>
       </c>
       <c r="G40" t="n">
-        <v>87.33863074072667</v>
+        <v>87.33863074072673</v>
       </c>
       <c r="H40" t="n">
-        <v>63.53681638462914</v>
+        <v>63.53681638462917</v>
       </c>
       <c r="I40" t="n">
         <v>62.11912770411553</v>
       </c>
       <c r="J40" t="n">
-        <v>67.6987703122989</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="K40" t="n">
-        <v>149.5338114222408</v>
+        <v>143.9541688140574</v>
       </c>
       <c r="L40" t="n">
-        <v>442.7178209184691</v>
+        <v>437.1381783102856</v>
       </c>
       <c r="M40" t="n">
-        <v>629.0093992567331</v>
+        <v>629.0093992567336</v>
       </c>
       <c r="N40" t="n">
-        <v>812.1990332879423</v>
+        <v>812.1990332879427</v>
       </c>
       <c r="O40" t="n">
-        <v>974.9038003296503</v>
+        <v>974.9038003296507</v>
       </c>
       <c r="P40" t="n">
         <v>1094.779966106229</v>
@@ -7360,22 +7360,22 @@
         <v>1027.062815341238</v>
       </c>
       <c r="T40" t="n">
-        <v>923.0205001918803</v>
+        <v>923.0205001918806</v>
       </c>
       <c r="U40" t="n">
-        <v>769.2584451161897</v>
+        <v>769.25844511619</v>
       </c>
       <c r="V40" t="n">
-        <v>634.9558366194225</v>
+        <v>634.9558366194227</v>
       </c>
       <c r="W40" t="n">
-        <v>483.3021712330086</v>
+        <v>483.3021712330088</v>
       </c>
       <c r="X40" t="n">
-        <v>380.8985856984002</v>
+        <v>380.8985856984004</v>
       </c>
       <c r="Y40" t="n">
-        <v>289.463261197452</v>
+        <v>289.4632611974523</v>
       </c>
     </row>
     <row r="41">
@@ -7385,25 +7385,25 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1614.059487414177</v>
+        <v>1614.059487414176</v>
       </c>
       <c r="C41" t="n">
-        <v>1352.560722599516</v>
+        <v>1352.560722599515</v>
       </c>
       <c r="D41" t="n">
-        <v>1098.796330498593</v>
+        <v>1098.796330498592</v>
       </c>
       <c r="E41" t="n">
-        <v>827.8895422975456</v>
+        <v>827.8895422975452</v>
       </c>
       <c r="F41" t="n">
-        <v>542.6718405099318</v>
+        <v>542.6718405099314</v>
       </c>
       <c r="G41" t="n">
-        <v>261.1858216803435</v>
+        <v>261.185821680343</v>
       </c>
       <c r="H41" t="n">
-        <v>68.77950792924223</v>
+        <v>68.77950792924217</v>
       </c>
       <c r="I41" t="n">
         <v>62.11912770411553</v>
@@ -7442,7 +7442,7 @@
         <v>2979.295701071061</v>
       </c>
       <c r="U41" t="n">
-        <v>2855.219708188068</v>
+        <v>2855.219708188067</v>
       </c>
       <c r="V41" t="n">
         <v>2644.789635573994</v>
@@ -7451,7 +7451,7 @@
         <v>2405.46733722469</v>
       </c>
       <c r="X41" t="n">
-        <v>2147.691468840156</v>
+        <v>2147.691468840155</v>
       </c>
       <c r="Y41" t="n">
         <v>1882.877496443165</v>
@@ -7488,19 +7488,19 @@
         <v>62.11912770411553</v>
       </c>
       <c r="J42" t="n">
-        <v>62.11912770411553</v>
+        <v>175.2341099238429</v>
       </c>
       <c r="K42" t="n">
-        <v>381.858273766342</v>
+        <v>494.9732559860694</v>
       </c>
       <c r="L42" t="n">
-        <v>865.4243596646552</v>
+        <v>978.5393418843826</v>
       </c>
       <c r="M42" t="n">
-        <v>1493.196009291336</v>
+        <v>1223.947919817482</v>
       </c>
       <c r="N42" t="n">
-        <v>1740.468202408463</v>
+        <v>1223.947919817482</v>
       </c>
       <c r="O42" t="n">
         <v>1740.468202408463</v>
@@ -7543,25 +7543,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>235.9319791885594</v>
+        <v>235.931979188559</v>
       </c>
       <c r="C43" t="n">
-        <v>197.4035979369571</v>
+        <v>197.4035979369567</v>
       </c>
       <c r="D43" t="n">
-        <v>173.4472215218803</v>
+        <v>173.44722152188</v>
       </c>
       <c r="E43" t="n">
-        <v>149.5651460634913</v>
+        <v>149.5651460634911</v>
       </c>
       <c r="F43" t="n">
-        <v>123.9159479588727</v>
+        <v>123.9159479588725</v>
       </c>
       <c r="G43" t="n">
-        <v>87.33863074072673</v>
+        <v>87.3386307407266</v>
       </c>
       <c r="H43" t="n">
-        <v>63.53681638462917</v>
+        <v>63.53681638462911</v>
       </c>
       <c r="I43" t="n">
         <v>62.11912770411553</v>
@@ -7588,31 +7588,31 @@
         <v>1089.200323498045</v>
       </c>
       <c r="Q43" t="n">
-        <v>1092.622519868096</v>
+        <v>1098.202162476279</v>
       </c>
       <c r="R43" t="n">
-        <v>1098.20216247628</v>
+        <v>1098.202162476279</v>
       </c>
       <c r="S43" t="n">
-        <v>1027.062815341238</v>
+        <v>1027.062815341237</v>
       </c>
       <c r="T43" t="n">
-        <v>923.0205001918806</v>
+        <v>923.0205001918799</v>
       </c>
       <c r="U43" t="n">
-        <v>769.25844511619</v>
+        <v>769.2584451161894</v>
       </c>
       <c r="V43" t="n">
-        <v>634.9558366194227</v>
+        <v>634.9558366194221</v>
       </c>
       <c r="W43" t="n">
-        <v>483.3021712330088</v>
+        <v>483.3021712330083</v>
       </c>
       <c r="X43" t="n">
-        <v>380.8985856984004</v>
+        <v>380.8985856983999</v>
       </c>
       <c r="Y43" t="n">
-        <v>289.4632611974523</v>
+        <v>289.4632611974517</v>
       </c>
     </row>
     <row r="44">
@@ -7622,25 +7622,25 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1614.059487414177</v>
+        <v>1614.059487414176</v>
       </c>
       <c r="C44" t="n">
-        <v>1352.560722599516</v>
+        <v>1352.560722599515</v>
       </c>
       <c r="D44" t="n">
         <v>1098.796330498592</v>
       </c>
       <c r="E44" t="n">
-        <v>827.8895422975452</v>
+        <v>827.8895422975447</v>
       </c>
       <c r="F44" t="n">
-        <v>542.6718405099314</v>
+        <v>542.6718405099309</v>
       </c>
       <c r="G44" t="n">
-        <v>261.185821680343</v>
+        <v>261.1858216803425</v>
       </c>
       <c r="H44" t="n">
-        <v>68.77950792924223</v>
+        <v>68.77950792924229</v>
       </c>
       <c r="I44" t="n">
         <v>62.11912770411553</v>
@@ -7725,13 +7725,13 @@
         <v>62.11912770411553</v>
       </c>
       <c r="J45" t="n">
-        <v>62.11912770411553</v>
+        <v>175.2341099238429</v>
       </c>
       <c r="K45" t="n">
-        <v>381.858273766342</v>
+        <v>494.9732559860694</v>
       </c>
       <c r="L45" t="n">
-        <v>865.4243596646552</v>
+        <v>978.5393418843826</v>
       </c>
       <c r="M45" t="n">
         <v>1223.947919817482</v>
@@ -7780,76 +7780,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>235.9319791885594</v>
+        <v>235.9319791885598</v>
       </c>
       <c r="C46" t="n">
-        <v>197.4035979369571</v>
+        <v>197.4035979369575</v>
       </c>
       <c r="D46" t="n">
-        <v>173.4472215218803</v>
+        <v>173.4472215218806</v>
       </c>
       <c r="E46" t="n">
-        <v>149.5651460634913</v>
+        <v>149.5651460634915</v>
       </c>
       <c r="F46" t="n">
-        <v>123.9159479588727</v>
+        <v>123.9159479588729</v>
       </c>
       <c r="G46" t="n">
-        <v>87.33863074072673</v>
+        <v>87.33863074072684</v>
       </c>
       <c r="H46" t="n">
-        <v>63.53681638462917</v>
+        <v>63.53681638462923</v>
       </c>
       <c r="I46" t="n">
         <v>62.11912770411553</v>
       </c>
       <c r="J46" t="n">
-        <v>161.4017547291066</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="K46" t="n">
-        <v>270.9691711012525</v>
+        <v>143.9541688140574</v>
       </c>
       <c r="L46" t="n">
-        <v>435.0968109750523</v>
+        <v>308.0818086878572</v>
       </c>
       <c r="M46" t="n">
-        <v>621.3883893133163</v>
+        <v>623.4297566485496</v>
       </c>
       <c r="N46" t="n">
-        <v>804.5780233445255</v>
+        <v>806.6193906797589</v>
       </c>
       <c r="O46" t="n">
-        <v>967.2827903862335</v>
+        <v>974.9038003296516</v>
       </c>
       <c r="P46" t="n">
-        <v>1087.158956162812</v>
+        <v>1094.77996610623</v>
       </c>
       <c r="Q46" t="n">
-        <v>1090.581152532863</v>
+        <v>1098.202162476281</v>
       </c>
       <c r="R46" t="n">
-        <v>1098.20216247628</v>
+        <v>1098.202162476281</v>
       </c>
       <c r="S46" t="n">
-        <v>1027.062815341238</v>
+        <v>1027.062815341239</v>
       </c>
       <c r="T46" t="n">
-        <v>923.0205001918806</v>
+        <v>923.0205001918814</v>
       </c>
       <c r="U46" t="n">
-        <v>769.25844511619</v>
+        <v>769.2584451161907</v>
       </c>
       <c r="V46" t="n">
-        <v>634.9558366194227</v>
+        <v>634.9558366194234</v>
       </c>
       <c r="W46" t="n">
-        <v>483.3021712330088</v>
+        <v>483.3021712330094</v>
       </c>
       <c r="X46" t="n">
-        <v>380.8985856984004</v>
+        <v>380.898585698401</v>
       </c>
       <c r="Y46" t="n">
-        <v>289.4632611974523</v>
+        <v>289.4632611974527</v>
       </c>
     </row>
   </sheetData>
@@ -7982,13 +7982,13 @@
         <v>505.666843611017</v>
       </c>
       <c r="L2" t="n">
-        <v>153.2481697304917</v>
+        <v>651.5514946987026</v>
       </c>
       <c r="M2" t="n">
-        <v>464.4895008354951</v>
+        <v>149.7250515977273</v>
       </c>
       <c r="N2" t="n">
-        <v>682.2612020826953</v>
+        <v>213.3952764296707</v>
       </c>
       <c r="O2" t="n">
         <v>594.0482827698827</v>
@@ -7997,7 +7997,7 @@
         <v>502.0059847475129</v>
       </c>
       <c r="Q2" t="n">
-        <v>144.4986984183922</v>
+        <v>331.2113854294513</v>
       </c>
       <c r="R2" t="n">
         <v>102.5176150018526</v>
@@ -8055,28 +8055,28 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J3" t="n">
-        <v>196.7020151310378</v>
+        <v>82.44445733333335</v>
       </c>
       <c r="K3" t="n">
         <v>89.59693533333335</v>
       </c>
       <c r="L3" t="n">
-        <v>416.7338824638915</v>
+        <v>578.5109386733963</v>
       </c>
       <c r="M3" t="n">
-        <v>636.0828644837487</v>
+        <v>611.1777065035428</v>
       </c>
       <c r="N3" t="n">
-        <v>85.37211285416666</v>
+        <v>604.1626973083976</v>
       </c>
       <c r="O3" t="n">
-        <v>614.4252180716981</v>
+        <v>611.4781433431199</v>
       </c>
       <c r="P3" t="n">
-        <v>496.801919078302</v>
+        <v>96.46212172154333</v>
       </c>
       <c r="Q3" t="n">
-        <v>327.7205688679246</v>
+        <v>90.98815315591399</v>
       </c>
       <c r="R3" t="n">
         <v>71.01380490566048</v>
@@ -8222,19 +8222,19 @@
         <v>651.5514946987026</v>
       </c>
       <c r="M5" t="n">
-        <v>693.4207940321642</v>
+        <v>214.0018366896139</v>
       </c>
       <c r="N5" t="n">
-        <v>306.731121424403</v>
+        <v>149.1184913377841</v>
       </c>
       <c r="O5" t="n">
         <v>594.0482827698827</v>
       </c>
       <c r="P5" t="n">
-        <v>150.3014472409252</v>
+        <v>502.0059847475129</v>
       </c>
       <c r="Q5" t="n">
-        <v>144.4986984183922</v>
+        <v>331.2113854294513</v>
       </c>
       <c r="R5" t="n">
         <v>102.5176150018526</v>
@@ -8292,28 +8292,28 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J6" t="n">
-        <v>196.7020151310378</v>
+        <v>82.44445733333335</v>
       </c>
       <c r="K6" t="n">
         <v>412.5657697396227</v>
       </c>
       <c r="L6" t="n">
-        <v>578.5109386733963</v>
+        <v>90.06034685691823</v>
       </c>
       <c r="M6" t="n">
-        <v>636.0828644837487</v>
+        <v>376.3196665569728</v>
       </c>
       <c r="N6" t="n">
-        <v>122.3638814211817</v>
+        <v>604.1626973083976</v>
       </c>
       <c r="O6" t="n">
-        <v>92.68755888888889</v>
+        <v>611.4781433431199</v>
       </c>
       <c r="P6" t="n">
         <v>496.801919078302</v>
       </c>
       <c r="Q6" t="n">
-        <v>327.7205688679246</v>
+        <v>90.98815315591399</v>
       </c>
       <c r="R6" t="n">
         <v>71.01380490566048</v>
@@ -8453,7 +8453,7 @@
         <v>117.6798379423461</v>
       </c>
       <c r="K8" t="n">
-        <v>143.0584031792374</v>
+        <v>505.666843611017</v>
       </c>
       <c r="L8" t="n">
         <v>651.5514946987026</v>
@@ -8465,13 +8465,13 @@
         <v>682.2612020826953</v>
       </c>
       <c r="O8" t="n">
-        <v>594.0482827698827</v>
+        <v>149.5638374240964</v>
       </c>
       <c r="P8" t="n">
-        <v>464.6079711628815</v>
+        <v>359.7712890658291</v>
       </c>
       <c r="Q8" t="n">
-        <v>144.4986984183922</v>
+        <v>331.2113854294513</v>
       </c>
       <c r="R8" t="n">
         <v>102.5176150018526</v>
@@ -8532,16 +8532,16 @@
         <v>82.44445733333335</v>
       </c>
       <c r="K9" t="n">
-        <v>412.5657697396227</v>
+        <v>89.59693533333335</v>
       </c>
       <c r="L9" t="n">
         <v>578.5109386733963</v>
       </c>
       <c r="M9" t="n">
-        <v>454.5321323046934</v>
+        <v>186.0888404416877</v>
       </c>
       <c r="N9" t="n">
-        <v>85.37211285416666</v>
+        <v>676.7842391234617</v>
       </c>
       <c r="O9" t="n">
         <v>614.4252180716981</v>
@@ -8705,7 +8705,7 @@
         <v>594.0482827698827</v>
       </c>
       <c r="P11" t="n">
-        <v>502.0059847475131</v>
+        <v>502.0059847475129</v>
       </c>
       <c r="Q11" t="n">
         <v>331.2113854294513</v>
@@ -8766,28 +8766,28 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J12" t="n">
-        <v>196.7020151310378</v>
+        <v>82.44445733333335</v>
       </c>
       <c r="K12" t="n">
-        <v>412.5657697396227</v>
+        <v>89.59693533333335</v>
       </c>
       <c r="L12" t="n">
         <v>578.5109386733963</v>
       </c>
       <c r="M12" t="n">
-        <v>92.38712204931191</v>
+        <v>726.4998994499999</v>
       </c>
       <c r="N12" t="n">
         <v>747.7741039759435</v>
       </c>
       <c r="O12" t="n">
-        <v>199.9106794075977</v>
+        <v>614.4252180716981</v>
       </c>
       <c r="P12" t="n">
-        <v>496.801919078302</v>
+        <v>122.133410929518</v>
       </c>
       <c r="Q12" t="n">
-        <v>327.7205688679246</v>
+        <v>90.98815315591399</v>
       </c>
       <c r="R12" t="n">
         <v>71.01380490566048</v>
@@ -9012,16 +9012,16 @@
         <v>578.5109386733963</v>
       </c>
       <c r="M15" t="n">
-        <v>340.2745745069883</v>
+        <v>726.4998994499999</v>
       </c>
       <c r="N15" t="n">
-        <v>85.37211285416666</v>
+        <v>108.8653421701425</v>
       </c>
       <c r="O15" t="n">
         <v>614.4252180716981</v>
       </c>
       <c r="P15" t="n">
-        <v>496.801919078302</v>
+        <v>87.08336481931465</v>
       </c>
       <c r="Q15" t="n">
         <v>327.7205688679246</v>
@@ -9240,16 +9240,16 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J18" t="n">
-        <v>82.44445733333335</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K18" t="n">
-        <v>89.59693533333335</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L18" t="n">
-        <v>578.5109386733963</v>
+        <v>163.9964000092958</v>
       </c>
       <c r="M18" t="n">
-        <v>726.4998994499999</v>
+        <v>92.38712204931191</v>
       </c>
       <c r="N18" t="n">
         <v>747.7741039759435</v>
@@ -9258,10 +9258,10 @@
         <v>614.4252180716981</v>
       </c>
       <c r="P18" t="n">
-        <v>122.133410929518</v>
+        <v>496.801919078302</v>
       </c>
       <c r="Q18" t="n">
-        <v>90.98815315591399</v>
+        <v>327.7205688679246</v>
       </c>
       <c r="R18" t="n">
         <v>71.01380490566048</v>
@@ -9416,7 +9416,7 @@
         <v>594.0482827698827</v>
       </c>
       <c r="P20" t="n">
-        <v>502.0059847475129</v>
+        <v>502.0059847475131</v>
       </c>
       <c r="Q20" t="n">
         <v>331.2113854294513</v>
@@ -9477,7 +9477,7 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J21" t="n">
-        <v>196.7020151310378</v>
+        <v>82.44445733333335</v>
       </c>
       <c r="K21" t="n">
         <v>412.5657697396227</v>
@@ -9486,13 +9486,13 @@
         <v>578.5109386733963</v>
       </c>
       <c r="M21" t="n">
-        <v>199.6102425680207</v>
+        <v>92.38712204931191</v>
       </c>
       <c r="N21" t="n">
-        <v>747.7741039759435</v>
+        <v>447.5171231095475</v>
       </c>
       <c r="O21" t="n">
-        <v>92.68755888888889</v>
+        <v>614.4252180716981</v>
       </c>
       <c r="P21" t="n">
         <v>496.801919078302</v>
@@ -9720,16 +9720,16 @@
         <v>412.5657697396227</v>
       </c>
       <c r="L24" t="n">
-        <v>578.5109386733963</v>
+        <v>306.543171528089</v>
       </c>
       <c r="M24" t="n">
-        <v>92.38712204931191</v>
+        <v>726.4998994499999</v>
       </c>
       <c r="N24" t="n">
-        <v>747.7741039759435</v>
+        <v>85.37211285416666</v>
       </c>
       <c r="O24" t="n">
-        <v>314.1682372053023</v>
+        <v>614.4252180716981</v>
       </c>
       <c r="P24" t="n">
         <v>496.801919078302</v>
@@ -9957,13 +9957,13 @@
         <v>412.5657697396227</v>
       </c>
       <c r="L27" t="n">
-        <v>90.06034685691823</v>
+        <v>578.5109386733963</v>
       </c>
       <c r="M27" t="n">
-        <v>280.5807329993937</v>
+        <v>92.38712204931191</v>
       </c>
       <c r="N27" t="n">
-        <v>747.7741039759435</v>
+        <v>684.2495388215578</v>
       </c>
       <c r="O27" t="n">
         <v>614.4252180716981</v>
@@ -9972,7 +9972,7 @@
         <v>496.801919078302</v>
       </c>
       <c r="Q27" t="n">
-        <v>327.7205688679246</v>
+        <v>90.98815315591399</v>
       </c>
       <c r="R27" t="n">
         <v>71.01380490566048</v>
@@ -10194,13 +10194,13 @@
         <v>412.5657697396227</v>
       </c>
       <c r="L30" t="n">
-        <v>90.06034685691823</v>
+        <v>578.5109386733963</v>
       </c>
       <c r="M30" t="n">
-        <v>166.3231752016892</v>
+        <v>340.274574506988</v>
       </c>
       <c r="N30" t="n">
-        <v>747.7741039759435</v>
+        <v>85.37211285416666</v>
       </c>
       <c r="O30" t="n">
         <v>614.4252180716981</v>
@@ -10425,7 +10425,7 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J33" t="n">
-        <v>196.7020151310378</v>
+        <v>82.44445733333335</v>
       </c>
       <c r="K33" t="n">
         <v>412.5657697396227</v>
@@ -10434,10 +10434,10 @@
         <v>578.5109386733963</v>
       </c>
       <c r="M33" t="n">
-        <v>340.2745745069883</v>
+        <v>92.38712204931191</v>
       </c>
       <c r="N33" t="n">
-        <v>85.37211285416666</v>
+        <v>447.5171231095477</v>
       </c>
       <c r="O33" t="n">
         <v>614.4252180716981</v>
@@ -10662,19 +10662,19 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J36" t="n">
-        <v>82.44445733333335</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K36" t="n">
-        <v>89.59693533333335</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L36" t="n">
         <v>578.5109386733963</v>
       </c>
       <c r="M36" t="n">
-        <v>726.4998994499999</v>
+        <v>340.2745745069883</v>
       </c>
       <c r="N36" t="n">
-        <v>373.1055958271594</v>
+        <v>85.37211285416666</v>
       </c>
       <c r="O36" t="n">
         <v>614.4252180716981</v>
@@ -10683,7 +10683,7 @@
         <v>496.801919078302</v>
       </c>
       <c r="Q36" t="n">
-        <v>90.98815315591399</v>
+        <v>327.7205688679246</v>
       </c>
       <c r="R36" t="n">
         <v>71.01380490566048</v>
@@ -10838,7 +10838,7 @@
         <v>594.0482827698827</v>
       </c>
       <c r="P38" t="n">
-        <v>502.0059847475131</v>
+        <v>502.0059847475129</v>
       </c>
       <c r="Q38" t="n">
         <v>331.2113854294513</v>
@@ -11136,7 +11136,7 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J42" t="n">
-        <v>82.44445733333335</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K42" t="n">
         <v>412.5657697396227</v>
@@ -11145,13 +11145,13 @@
         <v>578.5109386733963</v>
       </c>
       <c r="M42" t="n">
-        <v>726.4998994499999</v>
+        <v>340.2745745069883</v>
       </c>
       <c r="N42" t="n">
-        <v>335.1420048916687</v>
+        <v>85.37211285416666</v>
       </c>
       <c r="O42" t="n">
-        <v>92.68755888888889</v>
+        <v>614.4252180716981</v>
       </c>
       <c r="P42" t="n">
         <v>496.801919078302</v>
@@ -11373,7 +11373,7 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J45" t="n">
-        <v>82.44445733333335</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K45" t="n">
         <v>412.5657697396227</v>
@@ -11382,7 +11382,7 @@
         <v>578.5109386733963</v>
       </c>
       <c r="M45" t="n">
-        <v>454.5321323046928</v>
+        <v>340.2745745069883</v>
       </c>
       <c r="N45" t="n">
         <v>85.37211285416666</v>
@@ -23258,7 +23258,7 @@
         <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>318.1654340873668</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
@@ -23270,10 +23270,10 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>337.952815562145</v>
       </c>
       <c r="H11" t="n">
-        <v>249.7639075344422</v>
+        <v>233.1066041632762</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -23306,7 +23306,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>57.37375084801737</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
         <v>0</v>
@@ -23315,13 +23315,13 @@
         <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>267.6074288087848</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
         <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>314.4797666215417</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
         <v>0</v>
@@ -23413,7 +23413,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>112.2776261096563</v>
+        <v>112.2776261096564</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
@@ -23422,19 +23422,19 @@
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>65.07960880367976</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>84.67436304442479</v>
+        <v>84.67436304442489</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>82.84545313338897</v>
+        <v>82.84545313338907</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>60.685168714561</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23461,10 +23461,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>51.58366707901682</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>45.11952874481373</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
@@ -23479,10 +23479,10 @@
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>160.6612066001148</v>
       </c>
       <c r="Y13" t="n">
-        <v>149.8026281767911</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -23504,16 +23504,16 @@
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>155.7908001043863</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>147.511231924528</v>
       </c>
       <c r="H14" t="n">
-        <v>249.7639075344422</v>
+        <v>249.7639075344424</v>
       </c>
       <c r="I14" t="n">
-        <v>65.87543334372783</v>
+        <v>65.87543334372795</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23543,16 +23543,16 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>93.77010711362807</v>
       </c>
       <c r="T14" t="n">
-        <v>150.1872840214455</v>
+        <v>150.1872840214456</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>182.1168898750155</v>
       </c>
       <c r="V14" t="n">
-        <v>267.6074288087848</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
         <v>0</v>
@@ -23650,25 +23650,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>112.2776261096564</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>97.4247543599388</v>
       </c>
       <c r="D16" t="n">
-        <v>82.99846957177841</v>
+        <v>82.99846957177853</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>84.67436304442479</v>
+        <v>84.67436304442491</v>
       </c>
       <c r="G16" t="n">
-        <v>95.49320096681693</v>
+        <v>34.45901304875586</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>82.84545313338909</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -23698,19 +23698,19 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>51.58366707901693</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>162.2835489187162</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>120.8137638452209</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
@@ -23792,7 +23792,7 @@
         <v>0</v>
       </c>
       <c r="W17" t="n">
-        <v>2.92500808610389e-13</v>
+        <v>0</v>
       </c>
       <c r="X17" t="n">
         <v>0</v>
@@ -23966,7 +23966,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0</v>
+        <v>-9.003997547551989e-13</v>
       </c>
       <c r="C20" t="n">
         <v>0</v>
@@ -26123,7 +26123,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>1013566.382643318</v>
+        <v>1012964.835029558</v>
       </c>
     </row>
     <row r="3">
@@ -26131,7 +26131,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>1013566.382643318</v>
+        <v>1012964.835029558</v>
       </c>
     </row>
     <row r="4">
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>902283.2148185163</v>
+        <v>902283.214818516</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>902283.2148185164</v>
+        <v>902283.2148185162</v>
       </c>
     </row>
     <row r="7">
@@ -26311,19 +26311,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>270498.2671400352</v>
+        <v>270498.2671400351</v>
       </c>
       <c r="C2" t="n">
         <v>270498.2671400351</v>
       </c>
       <c r="D2" t="n">
-        <v>270498.2671400352</v>
+        <v>270498.2671400351</v>
       </c>
       <c r="E2" t="n">
-        <v>239038.535136601</v>
+        <v>239038.5351366008</v>
       </c>
       <c r="F2" t="n">
-        <v>239038.535136601</v>
+        <v>239038.5351366009</v>
       </c>
       <c r="G2" t="n">
         <v>270498.2671400352</v>
@@ -26332,16 +26332,16 @@
         <v>270498.2671400351</v>
       </c>
       <c r="I2" t="n">
-        <v>270498.2671400352</v>
+        <v>270498.2671400351</v>
       </c>
       <c r="J2" t="n">
-        <v>270498.2671400355</v>
+        <v>270498.2671400356</v>
       </c>
       <c r="K2" t="n">
         <v>270498.2671400354</v>
       </c>
       <c r="L2" t="n">
-        <v>270498.2671400353</v>
+        <v>270498.2671400356</v>
       </c>
       <c r="M2" t="n">
         <v>270498.2671400352</v>
@@ -26353,7 +26353,7 @@
         <v>270498.2671400351</v>
       </c>
       <c r="P2" t="n">
-        <v>270498.2671400351</v>
+        <v>270498.2671400352</v>
       </c>
     </row>
     <row r="3">
@@ -26363,22 +26363,22 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>182204.9482918558</v>
+        <v>173858.6570340552</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>14822.14031062201</v>
+        <v>22558.42953401337</v>
       </c>
       <c r="E3" t="n">
-        <v>112122.5614740446</v>
+        <v>112122.5614740445</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>47425.32553668194</v>
+        <v>47425.32553668208</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26387,22 +26387,22 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>206802.1491945025</v>
+        <v>200285.8640399294</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>57301.47179728557</v>
+        <v>62456.24177539679</v>
       </c>
       <c r="M3" t="n">
-        <v>42200.82945962303</v>
+        <v>43252.52447081114</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>27767.69404277122</v>
+        <v>27767.69404277113</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26415,25 +26415,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>188945.5063541668</v>
+        <v>195056.1330166294</v>
       </c>
       <c r="C4" t="n">
-        <v>188945.5063541668</v>
+        <v>195056.1330166295</v>
       </c>
       <c r="D4" t="n">
         <v>177238.0115641587</v>
       </c>
       <c r="E4" t="n">
-        <v>99893.08150805107</v>
+        <v>99893.08150805096</v>
       </c>
       <c r="F4" t="n">
-        <v>99893.08150805107</v>
+        <v>99893.08150805095</v>
       </c>
       <c r="G4" t="n">
-        <v>147651.9979996332</v>
+        <v>147651.9979996333</v>
       </c>
       <c r="H4" t="n">
-        <v>147651.9979996332</v>
+        <v>147651.9979996333</v>
       </c>
       <c r="I4" t="n">
         <v>147651.9979996332</v>
@@ -26445,19 +26445,19 @@
         <v>148402.4904640163</v>
       </c>
       <c r="L4" t="n">
-        <v>148146.916563533</v>
+        <v>148013.5219544782</v>
       </c>
       <c r="M4" t="n">
         <v>147651.9979996332</v>
       </c>
       <c r="N4" t="n">
+        <v>147651.9979996332</v>
+      </c>
+      <c r="O4" t="n">
         <v>147651.9979996333</v>
       </c>
-      <c r="O4" t="n">
-        <v>147651.9979996332</v>
-      </c>
       <c r="P4" t="n">
-        <v>147651.9979996332</v>
+        <v>147651.9979996331</v>
       </c>
     </row>
     <row r="5">
@@ -26467,28 +26467,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>66684.30114001376</v>
+        <v>65170.06753481724</v>
       </c>
       <c r="C5" t="n">
-        <v>66684.30114001376</v>
+        <v>65170.06753481724</v>
       </c>
       <c r="D5" t="n">
         <v>69585.45727717315</v>
       </c>
       <c r="E5" t="n">
-        <v>53186.01969984052</v>
+        <v>53186.01969984051</v>
       </c>
       <c r="F5" t="n">
-        <v>53186.01969984052</v>
+        <v>53186.01969984051</v>
       </c>
       <c r="G5" t="n">
-        <v>58169.76931551966</v>
+        <v>58169.76931551967</v>
       </c>
       <c r="H5" t="n">
-        <v>58169.76931551966</v>
+        <v>58169.76931551967</v>
       </c>
       <c r="I5" t="n">
-        <v>58169.76931551966</v>
+        <v>58169.76931551967</v>
       </c>
       <c r="J5" t="n">
         <v>63659.0452539195</v>
@@ -26497,7 +26497,7 @@
         <v>63659.0452539195</v>
       </c>
       <c r="L5" t="n">
-        <v>61795.73629173847</v>
+        <v>60823.19813315425</v>
       </c>
       <c r="M5" t="n">
         <v>58169.76931551966</v>
@@ -26509,7 +26509,7 @@
         <v>58169.76931551966</v>
       </c>
       <c r="P5" t="n">
-        <v>58169.76931551966</v>
+        <v>58169.76931551965</v>
       </c>
     </row>
     <row r="6">
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-167336.4886460011</v>
+        <v>-163586.5904454669</v>
       </c>
       <c r="C6" t="n">
-        <v>14868.45964585457</v>
+        <v>10272.06658858835</v>
       </c>
       <c r="D6" t="n">
-        <v>8852.657988081308</v>
+        <v>1116.368764689803</v>
       </c>
       <c r="E6" t="n">
-        <v>-26163.12754533514</v>
+        <v>-26372.85909202473</v>
       </c>
       <c r="F6" t="n">
-        <v>85959.43392870948</v>
+        <v>85749.70238201985</v>
       </c>
       <c r="G6" t="n">
-        <v>17251.17428820033</v>
+        <v>17251.17428820015</v>
       </c>
       <c r="H6" t="n">
-        <v>64676.49982488225</v>
+        <v>64676.49982488219</v>
       </c>
       <c r="I6" t="n">
-        <v>64676.49982488237</v>
+        <v>64676.49982488224</v>
       </c>
       <c r="J6" t="n">
-        <v>-148365.4177724028</v>
+        <v>-141849.1326178296</v>
       </c>
       <c r="K6" t="n">
         <v>58436.73142209957</v>
       </c>
       <c r="L6" t="n">
-        <v>3254.142487478282</v>
+        <v>-794.6947229937068</v>
       </c>
       <c r="M6" t="n">
-        <v>22475.67036525931</v>
+        <v>21423.97535407124</v>
       </c>
       <c r="N6" t="n">
         <v>64676.49982488231</v>
       </c>
       <c r="O6" t="n">
-        <v>36908.80578211104</v>
+        <v>36908.80578211107</v>
       </c>
       <c r="P6" t="n">
-        <v>64676.49982488225</v>
+        <v>64676.49982488249</v>
       </c>
     </row>
   </sheetData>
@@ -26692,28 +26692,28 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>71.07831239473198</v>
+        <v>71.07831239473188</v>
       </c>
       <c r="F2" t="n">
-        <v>71.07831239473198</v>
+        <v>71.07831239473187</v>
       </c>
       <c r="G2" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155845</v>
       </c>
       <c r="H2" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155845</v>
       </c>
       <c r="I2" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155845</v>
       </c>
       <c r="J2" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="K2" t="n">
         <v>93.99127447431646</v>
       </c>
       <c r="L2" t="n">
-        <v>106.336457300071</v>
+        <v>112.7799197727098</v>
       </c>
       <c r="M2" t="n">
         <v>130.3599693155844</v>
@@ -26725,7 +26725,7 @@
         <v>130.3599693155844</v>
       </c>
       <c r="P2" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
     </row>
     <row r="3">
@@ -26787,10 +26787,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>543.6957424344369</v>
+        <v>518.790584454231</v>
       </c>
       <c r="C4" t="n">
-        <v>543.6957424344369</v>
+        <v>518.790584454231</v>
       </c>
       <c r="D4" t="n">
         <v>591.4121262692951</v>
@@ -26811,13 +26811,13 @@
         <v>776.4890963014441</v>
       </c>
       <c r="J4" t="n">
-        <v>917.0607368443782</v>
+        <v>917.0607368443783</v>
       </c>
       <c r="K4" t="n">
-        <v>917.0607368443782</v>
+        <v>917.0607368443783</v>
       </c>
       <c r="L4" t="n">
-        <v>869.34435300952</v>
+        <v>844.4391950293142</v>
       </c>
       <c r="M4" t="n">
         <v>776.4890963014441</v>
@@ -26914,13 +26914,13 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>71.07831239473198</v>
+        <v>71.07831239473188</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>59.28165692085243</v>
+        <v>59.2816569208526</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -26929,22 +26929,22 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>34.70961755346406</v>
+        <v>34.70961755346386</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>71.62683974660696</v>
+        <v>78.07030221924599</v>
       </c>
       <c r="M2" t="n">
-        <v>24.02351201551342</v>
+        <v>17.58004954287453</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>34.70961755346403</v>
+        <v>34.70961755346391</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -27009,13 +27009,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>543.6957424344369</v>
+        <v>518.790584454231</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>47.71638383485822</v>
+        <v>72.62154181506412</v>
       </c>
       <c r="E4" t="n">
         <v>185.076970032149</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>684.267382977371</v>
+        <v>659.3622249971652</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>92.22171332407304</v>
+        <v>117.1268713042789</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27151,13 +27151,13 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>71.07831239473198</v>
+        <v>71.07831239473188</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>59.28165692085243</v>
+        <v>59.2816569208526</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -27166,7 +27166,7 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>34.70961755346406</v>
+        <v>34.70961755346386</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -27255,13 +27255,13 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>543.6957424344369</v>
+        <v>518.790584454231</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>47.71638383485822</v>
+        <v>72.62154181506412</v>
       </c>
       <c r="M4" t="n">
         <v>185.076970032149</v>
@@ -27382,16 +27382,16 @@
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>381.5867174954989</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>137.7736131241323</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
         <v>320.8422199291742</v>
@@ -27430,22 +27430,22 @@
         <v>164.8484195083599</v>
       </c>
       <c r="T2" t="n">
-        <v>221.2655964161775</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>253.1952022697474</v>
       </c>
       <c r="V2" t="n">
-        <v>338.6857412035168</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>244.9565466056301</v>
+        <v>367.2890446813954</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>385.5580790162737</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>392.5258019886049</v>
       </c>
     </row>
     <row r="3">
@@ -27470,13 +27470,13 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>118.8592197488542</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>17.42514118925536</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>48.89338144820752</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27506,7 +27506,7 @@
         <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>0</v>
+        <v>133.5813703291298</v>
       </c>
       <c r="T3" t="n">
         <v>0</v>
@@ -27524,7 +27524,7 @@
         <v>0</v>
       </c>
       <c r="Y3" t="n">
-        <v>0</v>
+        <v>148.2483091467704</v>
       </c>
     </row>
     <row r="4">
@@ -27534,10 +27534,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>183.3559385043883</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>168.5030667546707</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
         <v>154.0767819665104</v>
@@ -27555,7 +27555,7 @@
         <v>153.923765528121</v>
       </c>
       <c r="I4" t="n">
-        <v>18.59674567450629</v>
+        <v>131.7634811092929</v>
       </c>
       <c r="J4" t="n">
         <v>30.07448747215907</v>
@@ -27591,19 +27591,19 @@
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>282.5844038405181</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>263.319551727384</v>
       </c>
       <c r="W4" t="n">
         <v>280.4970980481341</v>
       </c>
       <c r="X4" t="n">
-        <v>231.7395189948467</v>
+        <v>145.4087738227401</v>
       </c>
       <c r="Y4" t="n">
-        <v>220.8809405715231</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -27616,25 +27616,25 @@
         <v>396.4897982542829</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>389.2437464820987</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>381.5867174954989</v>
       </c>
       <c r="E5" t="n">
-        <v>315.2650298633392</v>
+        <v>398.5576896346209</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>75.5151670779982</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27664,22 +27664,22 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>164.8484195083599</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>221.2655964161775</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>253.1952022697474</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>338.6857412035168</v>
       </c>
       <c r="W5" t="n">
         <v>367.2890446813954</v>
       </c>
       <c r="X5" t="n">
-        <v>385.5580790162737</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>392.5258019886049</v>
@@ -27704,16 +27704,16 @@
         <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>0</v>
+        <v>123.1874880556995</v>
       </c>
       <c r="G6" t="n">
         <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>87.41444223540508</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>48.89338144820752</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -27740,13 +27740,13 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>23.6778726709161</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>133.5813703291298</v>
+        <v>0</v>
       </c>
       <c r="T6" t="n">
-        <v>27.9184993862709</v>
+        <v>22.33436773658792</v>
       </c>
       <c r="U6" t="n">
         <v>0</v>
@@ -27774,10 +27774,10 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>168.5030667546707</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>154.0767819665104</v>
       </c>
       <c r="E7" t="n">
         <v>154.0032240193895</v>
@@ -27789,10 +27789,10 @@
         <v>166.5715133615489</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>153.923765528121</v>
       </c>
       <c r="I7" t="n">
-        <v>131.7634811092929</v>
+        <v>75.390426351122</v>
       </c>
       <c r="J7" t="n">
         <v>30.07448747215907</v>
@@ -27819,7 +27819,7 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>122.6619794737488</v>
       </c>
       <c r="S7" t="n">
         <v>200.7879229792761</v>
@@ -27831,16 +27831,16 @@
         <v>282.5844038405181</v>
       </c>
       <c r="V7" t="n">
-        <v>216.6449838788623</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
         <v>280.4970980481341</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>231.7395189948467</v>
       </c>
       <c r="Y7" t="n">
-        <v>220.8809405715231</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -27856,19 +27856,19 @@
         <v>389.2437464820987</v>
       </c>
       <c r="D8" t="n">
-        <v>117.9478758200054</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>344.6645872441084</v>
       </c>
       <c r="F8" t="n">
+        <v>0</v>
+      </c>
+      <c r="G8" t="n">
         <v>400</v>
       </c>
-      <c r="G8" t="n">
-        <v>0</v>
-      </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>320.8422199291742</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -27898,19 +27898,19 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>37.61298457733328</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>221.2655964161775</v>
       </c>
       <c r="U8" t="n">
         <v>253.1952022697474</v>
       </c>
       <c r="V8" t="n">
-        <v>338.6857412035168</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
@@ -27919,7 +27919,7 @@
         <v>385.5580790162737</v>
       </c>
       <c r="Y8" t="n">
-        <v>392.5258019886049</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -28008,16 +28008,16 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>183.3559385043883</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
         <v>168.5030667546707</v>
       </c>
       <c r="D10" t="n">
-        <v>154.0767819665104</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>154.0032240193895</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
         <v>155.7526754391568</v>
@@ -28026,13 +28026,13 @@
         <v>166.5715133615489</v>
       </c>
       <c r="H10" t="n">
-        <v>109.9888824545194</v>
+        <v>153.923765528121</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>131.7634811092929</v>
       </c>
       <c r="J10" t="n">
-        <v>30.07448747215907</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28059,22 +28059,22 @@
         <v>122.6619794737488</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>200.7879229792761</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>233.3618613134482</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>282.5844038405181</v>
       </c>
       <c r="V10" t="n">
-        <v>263.319551727384</v>
+        <v>124.1369503685411</v>
       </c>
       <c r="W10" t="n">
         <v>280.4970980481341</v>
       </c>
       <c r="X10" t="n">
-        <v>231.7395189948467</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
         <v>220.8809405715231</v>
@@ -28087,28 +28087,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>71.07831239473198</v>
+        <v>71.07831239473188</v>
       </c>
       <c r="C11" t="n">
-        <v>71.07831239473198</v>
+        <v>71.07831239473188</v>
       </c>
       <c r="D11" t="n">
-        <v>71.07831239473198</v>
+        <v>71.07831239473188</v>
       </c>
       <c r="E11" t="n">
-        <v>71.07831239473198</v>
+        <v>71.07831239473188</v>
       </c>
       <c r="F11" t="n">
-        <v>71.07831239473198</v>
+        <v>71.07831239473188</v>
       </c>
       <c r="G11" t="n">
-        <v>71.07831239473198</v>
+        <v>71.07831239473188</v>
       </c>
       <c r="H11" t="n">
-        <v>71.07831239473198</v>
+        <v>71.07831239473188</v>
       </c>
       <c r="I11" t="n">
-        <v>71.07831239473198</v>
+        <v>71.07831239473188</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -28138,25 +28138,25 @@
         <v>37.61298457733328</v>
       </c>
       <c r="S11" t="n">
-        <v>71.07831239473198</v>
+        <v>71.07831239473188</v>
       </c>
       <c r="T11" t="n">
-        <v>71.07831239473198</v>
+        <v>71.07831239473188</v>
       </c>
       <c r="U11" t="n">
-        <v>71.07831239473198</v>
+        <v>71.07831239473188</v>
       </c>
       <c r="V11" t="n">
-        <v>71.07831239473198</v>
+        <v>71.07831239473188</v>
       </c>
       <c r="W11" t="n">
-        <v>71.07831239473198</v>
+        <v>71.07831239473188</v>
       </c>
       <c r="X11" t="n">
-        <v>71.07831239473198</v>
+        <v>71.07831239473188</v>
       </c>
       <c r="Y11" t="n">
-        <v>71.07831239473198</v>
+        <v>71.07831239473188</v>
       </c>
     </row>
     <row r="12">
@@ -28245,76 +28245,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>71.07831239473198</v>
+        <v>71.07831239473188</v>
       </c>
       <c r="C13" t="n">
-        <v>71.07831239473198</v>
+        <v>71.07831239473188</v>
       </c>
       <c r="D13" t="n">
-        <v>71.07831239473198</v>
+        <v>71.07831239473188</v>
       </c>
       <c r="E13" t="n">
-        <v>71.07831239473198</v>
+        <v>71.07831239473188</v>
       </c>
       <c r="F13" t="n">
-        <v>71.07831239473198</v>
+        <v>71.07831239473188</v>
       </c>
       <c r="G13" t="n">
-        <v>71.07831239473198</v>
+        <v>71.07831239473188</v>
       </c>
       <c r="H13" t="n">
-        <v>71.07831239473198</v>
+        <v>71.07831239473188</v>
       </c>
       <c r="I13" t="n">
-        <v>71.07831239473198</v>
+        <v>71.07831239473188</v>
       </c>
       <c r="J13" t="n">
-        <v>71.07831239473198</v>
+        <v>71.07831239473188</v>
       </c>
       <c r="K13" t="n">
-        <v>71.07831239473198</v>
+        <v>71.07831239473188</v>
       </c>
       <c r="L13" t="n">
-        <v>71.07831239473198</v>
+        <v>71.07831239473188</v>
       </c>
       <c r="M13" t="n">
-        <v>71.07831239473198</v>
+        <v>71.07831239473188</v>
       </c>
       <c r="N13" t="n">
-        <v>71.07831239473198</v>
+        <v>71.07831239473188</v>
       </c>
       <c r="O13" t="n">
-        <v>71.07831239473198</v>
+        <v>71.07831239473188</v>
       </c>
       <c r="P13" t="n">
-        <v>71.07831239473198</v>
+        <v>71.07831239473188</v>
       </c>
       <c r="Q13" t="n">
-        <v>71.07831239473198</v>
+        <v>71.07831239473188</v>
       </c>
       <c r="R13" t="n">
-        <v>71.07831239473198</v>
+        <v>71.07831239473188</v>
       </c>
       <c r="S13" t="n">
-        <v>71.07831239473198</v>
+        <v>71.07831239473188</v>
       </c>
       <c r="T13" t="n">
-        <v>71.07831239473198</v>
+        <v>71.07831239473188</v>
       </c>
       <c r="U13" t="n">
-        <v>71.07831239473198</v>
+        <v>71.07831239473188</v>
       </c>
       <c r="V13" t="n">
-        <v>71.07831239473198</v>
+        <v>71.07831239473188</v>
       </c>
       <c r="W13" t="n">
-        <v>71.07831239473198</v>
+        <v>71.07831239473188</v>
       </c>
       <c r="X13" t="n">
-        <v>71.07831239473198</v>
+        <v>71.07831239473188</v>
       </c>
       <c r="Y13" t="n">
-        <v>71.07831239473198</v>
+        <v>71.07831239473188</v>
       </c>
     </row>
     <row r="14">
@@ -28324,28 +28324,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>71.07831239473198</v>
+        <v>71.07831239473187</v>
       </c>
       <c r="C14" t="n">
-        <v>71.07831239473198</v>
+        <v>71.07831239473187</v>
       </c>
       <c r="D14" t="n">
-        <v>71.07831239473198</v>
+        <v>71.07831239473187</v>
       </c>
       <c r="E14" t="n">
-        <v>71.07831239473198</v>
+        <v>71.07831239473187</v>
       </c>
       <c r="F14" t="n">
-        <v>71.07831239473198</v>
+        <v>71.07831239473187</v>
       </c>
       <c r="G14" t="n">
-        <v>71.07831239473198</v>
+        <v>71.07831239473187</v>
       </c>
       <c r="H14" t="n">
-        <v>71.07831239473198</v>
+        <v>71.07831239473187</v>
       </c>
       <c r="I14" t="n">
-        <v>71.07831239473198</v>
+        <v>71.07831239473187</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -28375,25 +28375,25 @@
         <v>37.61298457733328</v>
       </c>
       <c r="S14" t="n">
-        <v>71.07831239473198</v>
+        <v>71.07831239473187</v>
       </c>
       <c r="T14" t="n">
-        <v>71.07831239473198</v>
+        <v>71.07831239473187</v>
       </c>
       <c r="U14" t="n">
-        <v>71.07831239473198</v>
+        <v>71.07831239473187</v>
       </c>
       <c r="V14" t="n">
-        <v>71.07831239473198</v>
+        <v>71.07831239473187</v>
       </c>
       <c r="W14" t="n">
-        <v>71.07831239473198</v>
+        <v>71.07831239473187</v>
       </c>
       <c r="X14" t="n">
-        <v>71.07831239473198</v>
+        <v>71.07831239473187</v>
       </c>
       <c r="Y14" t="n">
-        <v>71.07831239473198</v>
+        <v>71.07831239473187</v>
       </c>
     </row>
     <row r="15">
@@ -28482,76 +28482,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>71.07831239473198</v>
+        <v>71.07831239473187</v>
       </c>
       <c r="C16" t="n">
-        <v>71.07831239473198</v>
+        <v>71.07831239473187</v>
       </c>
       <c r="D16" t="n">
-        <v>71.07831239473198</v>
+        <v>71.07831239473187</v>
       </c>
       <c r="E16" t="n">
-        <v>71.07831239473198</v>
+        <v>71.07831239473187</v>
       </c>
       <c r="F16" t="n">
-        <v>71.07831239473198</v>
+        <v>71.07831239473187</v>
       </c>
       <c r="G16" t="n">
-        <v>71.07831239473198</v>
+        <v>71.07831239473187</v>
       </c>
       <c r="H16" t="n">
-        <v>71.07831239473198</v>
+        <v>71.07831239473187</v>
       </c>
       <c r="I16" t="n">
-        <v>71.07831239473198</v>
+        <v>71.07831239473187</v>
       </c>
       <c r="J16" t="n">
-        <v>71.07831239473198</v>
+        <v>71.07831239473187</v>
       </c>
       <c r="K16" t="n">
-        <v>71.07831239473198</v>
+        <v>71.07831239473187</v>
       </c>
       <c r="L16" t="n">
-        <v>71.07831239473198</v>
+        <v>71.07831239473187</v>
       </c>
       <c r="M16" t="n">
-        <v>71.07831239473198</v>
+        <v>71.07831239473187</v>
       </c>
       <c r="N16" t="n">
-        <v>71.07831239473198</v>
+        <v>71.07831239473187</v>
       </c>
       <c r="O16" t="n">
-        <v>71.07831239473198</v>
+        <v>71.07831239473187</v>
       </c>
       <c r="P16" t="n">
-        <v>71.07831239473198</v>
+        <v>71.07831239473187</v>
       </c>
       <c r="Q16" t="n">
-        <v>71.07831239473198</v>
+        <v>71.07831239473187</v>
       </c>
       <c r="R16" t="n">
-        <v>71.07831239473198</v>
+        <v>71.07831239473187</v>
       </c>
       <c r="S16" t="n">
-        <v>71.07831239473198</v>
+        <v>71.07831239473187</v>
       </c>
       <c r="T16" t="n">
-        <v>71.07831239473198</v>
+        <v>71.07831239473187</v>
       </c>
       <c r="U16" t="n">
-        <v>71.07831239473198</v>
+        <v>71.07831239473187</v>
       </c>
       <c r="V16" t="n">
-        <v>71.07831239473198</v>
+        <v>71.07831239473187</v>
       </c>
       <c r="W16" t="n">
-        <v>71.07831239473198</v>
+        <v>71.07831239473187</v>
       </c>
       <c r="X16" t="n">
-        <v>71.07831239473198</v>
+        <v>71.07831239473187</v>
       </c>
       <c r="Y16" t="n">
-        <v>71.07831239473198</v>
+        <v>71.07831239473187</v>
       </c>
     </row>
     <row r="17">
@@ -28561,28 +28561,28 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155845</v>
       </c>
       <c r="C17" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155845</v>
       </c>
       <c r="D17" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155845</v>
       </c>
       <c r="E17" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155845</v>
       </c>
       <c r="F17" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155845</v>
       </c>
       <c r="G17" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155845</v>
       </c>
       <c r="H17" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155845</v>
       </c>
       <c r="I17" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155845</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -28612,25 +28612,25 @@
         <v>37.61298457733328</v>
       </c>
       <c r="S17" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155845</v>
       </c>
       <c r="T17" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155845</v>
       </c>
       <c r="U17" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155845</v>
       </c>
       <c r="V17" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155845</v>
       </c>
       <c r="W17" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155845</v>
       </c>
       <c r="X17" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155845</v>
       </c>
       <c r="Y17" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155845</v>
       </c>
     </row>
     <row r="18">
@@ -28719,40 +28719,40 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155845</v>
       </c>
       <c r="C19" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155845</v>
       </c>
       <c r="D19" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155845</v>
       </c>
       <c r="E19" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155845</v>
       </c>
       <c r="F19" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155845</v>
       </c>
       <c r="G19" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155845</v>
       </c>
       <c r="H19" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155845</v>
       </c>
       <c r="I19" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155845</v>
       </c>
       <c r="J19" t="n">
-        <v>130.3599693155844</v>
+        <v>30.07448747215907</v>
       </c>
       <c r="K19" t="n">
-        <v>0</v>
+        <v>130.3599693155845</v>
       </c>
       <c r="L19" t="n">
-        <v>0</v>
+        <v>5.63600263452787</v>
       </c>
       <c r="M19" t="n">
-        <v>35.7104901066877</v>
+        <v>0</v>
       </c>
       <c r="N19" t="n">
         <v>0</v>
@@ -28770,25 +28770,25 @@
         <v>122.6619794737488</v>
       </c>
       <c r="S19" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155845</v>
       </c>
       <c r="T19" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155845</v>
       </c>
       <c r="U19" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155845</v>
       </c>
       <c r="V19" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155845</v>
       </c>
       <c r="W19" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155845</v>
       </c>
       <c r="X19" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155845</v>
       </c>
       <c r="Y19" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155845</v>
       </c>
     </row>
     <row r="20">
@@ -28798,28 +28798,28 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155845</v>
       </c>
       <c r="C20" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155845</v>
       </c>
       <c r="D20" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155845</v>
       </c>
       <c r="E20" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155845</v>
       </c>
       <c r="F20" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155845</v>
       </c>
       <c r="G20" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155845</v>
       </c>
       <c r="H20" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155845</v>
       </c>
       <c r="I20" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155845</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -28849,25 +28849,25 @@
         <v>37.61298457733328</v>
       </c>
       <c r="S20" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155845</v>
       </c>
       <c r="T20" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155845</v>
       </c>
       <c r="U20" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155845</v>
       </c>
       <c r="V20" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155845</v>
       </c>
       <c r="W20" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155845</v>
       </c>
       <c r="X20" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155845</v>
       </c>
       <c r="Y20" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155845</v>
       </c>
     </row>
     <row r="21">
@@ -28956,34 +28956,34 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155845</v>
       </c>
       <c r="C22" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155845</v>
       </c>
       <c r="D22" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155845</v>
       </c>
       <c r="E22" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155845</v>
       </c>
       <c r="F22" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155845</v>
       </c>
       <c r="G22" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155845</v>
       </c>
       <c r="H22" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155845</v>
       </c>
       <c r="I22" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155845</v>
       </c>
       <c r="J22" t="n">
         <v>30.07448747215907</v>
       </c>
       <c r="K22" t="n">
-        <v>130.3599693155844</v>
+        <v>0</v>
       </c>
       <c r="L22" t="n">
         <v>0</v>
@@ -28995,7 +28995,7 @@
         <v>0</v>
       </c>
       <c r="O22" t="n">
-        <v>0</v>
+        <v>130.3599693155845</v>
       </c>
       <c r="P22" t="n">
         <v>0</v>
@@ -29004,28 +29004,28 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>128.2979821082779</v>
+        <v>128.2979821082765</v>
       </c>
       <c r="S22" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155845</v>
       </c>
       <c r="T22" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155845</v>
       </c>
       <c r="U22" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155845</v>
       </c>
       <c r="V22" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155845</v>
       </c>
       <c r="W22" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155845</v>
       </c>
       <c r="X22" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155845</v>
       </c>
       <c r="Y22" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155845</v>
       </c>
     </row>
     <row r="23">
@@ -29035,28 +29035,28 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155845</v>
       </c>
       <c r="C23" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155845</v>
       </c>
       <c r="D23" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155845</v>
       </c>
       <c r="E23" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155845</v>
       </c>
       <c r="F23" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155845</v>
       </c>
       <c r="G23" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155845</v>
       </c>
       <c r="H23" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155845</v>
       </c>
       <c r="I23" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155845</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -29083,28 +29083,28 @@
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>37.61298457733328</v>
+        <v>37.6129845773319</v>
       </c>
       <c r="S23" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155845</v>
       </c>
       <c r="T23" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155845</v>
       </c>
       <c r="U23" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155845</v>
       </c>
       <c r="V23" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155845</v>
       </c>
       <c r="W23" t="n">
-        <v>130.3599693155842</v>
+        <v>130.3599693155845</v>
       </c>
       <c r="X23" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155845</v>
       </c>
       <c r="Y23" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155845</v>
       </c>
     </row>
     <row r="24">
@@ -29193,31 +29193,31 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155845</v>
       </c>
       <c r="C25" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155845</v>
       </c>
       <c r="D25" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155845</v>
       </c>
       <c r="E25" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155845</v>
       </c>
       <c r="F25" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155845</v>
       </c>
       <c r="G25" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155845</v>
       </c>
       <c r="H25" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155845</v>
       </c>
       <c r="I25" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155845</v>
       </c>
       <c r="J25" t="n">
-        <v>35.71049010668811</v>
+        <v>30.07448747215907</v>
       </c>
       <c r="K25" t="n">
         <v>0</v>
@@ -29235,34 +29235,34 @@
         <v>0</v>
       </c>
       <c r="P25" t="n">
-        <v>130.3599693155844</v>
+        <v>0</v>
       </c>
       <c r="Q25" t="n">
-        <v>0</v>
+        <v>128.2979821082766</v>
       </c>
       <c r="R25" t="n">
-        <v>122.6619794737488</v>
+        <v>130.3599693155845</v>
       </c>
       <c r="S25" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155845</v>
       </c>
       <c r="T25" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155845</v>
       </c>
       <c r="U25" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155845</v>
       </c>
       <c r="V25" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155845</v>
       </c>
       <c r="W25" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155845</v>
       </c>
       <c r="X25" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155845</v>
       </c>
       <c r="Y25" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155845</v>
       </c>
     </row>
     <row r="26">
@@ -29272,76 +29272,76 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="C26" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="D26" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="E26" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="F26" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="G26" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="H26" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="I26" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="J26" t="n">
-        <v>93.99127447431646</v>
+        <v>0</v>
       </c>
       <c r="K26" t="n">
-        <v>93.99127447431646</v>
+        <v>0</v>
       </c>
       <c r="L26" t="n">
-        <v>30.27223765901215</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="M26" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="N26" t="n">
-        <v>0</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="O26" t="n">
-        <v>0</v>
+        <v>30.27223765901266</v>
       </c>
       <c r="P26" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="Q26" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="R26" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="S26" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="T26" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="U26" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="V26" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="W26" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="X26" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="Y26" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
     </row>
     <row r="27">
@@ -29430,76 +29430,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="C28" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="D28" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="E28" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="F28" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="G28" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="H28" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="I28" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="J28" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="K28" t="n">
-        <v>93.99127447431636</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="L28" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="M28" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="N28" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="O28" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="P28" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="Q28" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="R28" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="S28" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="T28" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="U28" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="V28" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="W28" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="X28" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="Y28" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
     </row>
     <row r="29">
@@ -29533,7 +29533,7 @@
         <v>93.99127447431646</v>
       </c>
       <c r="J29" t="n">
-        <v>93.99127447431646</v>
+        <v>0</v>
       </c>
       <c r="K29" t="n">
         <v>93.99127447431646</v>
@@ -29542,22 +29542,22 @@
         <v>93.99127447431646</v>
       </c>
       <c r="M29" t="n">
-        <v>93.99127447431646</v>
+        <v>86.65052755599584</v>
       </c>
       <c r="N29" t="n">
         <v>93.99127447431646</v>
       </c>
       <c r="O29" t="n">
-        <v>0</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="P29" t="n">
-        <v>0</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="Q29" t="n">
-        <v>30.27223765901226</v>
+        <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>93.99127447431646</v>
+        <v>37.61298457733328</v>
       </c>
       <c r="S29" t="n">
         <v>93.99127447431646</v>
@@ -29746,31 +29746,31 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>106.336457300071</v>
+        <v>112.7799197727098</v>
       </c>
       <c r="C32" t="n">
-        <v>106.336457300071</v>
+        <v>112.7799197727098</v>
       </c>
       <c r="D32" t="n">
-        <v>106.336457300071</v>
+        <v>112.7799197727098</v>
       </c>
       <c r="E32" t="n">
-        <v>106.336457300071</v>
+        <v>112.7799197727098</v>
       </c>
       <c r="F32" t="n">
-        <v>106.336457300071</v>
+        <v>112.7799197727098</v>
       </c>
       <c r="G32" t="n">
-        <v>106.336457300071</v>
+        <v>112.7799197727098</v>
       </c>
       <c r="H32" t="n">
-        <v>106.336457300071</v>
+        <v>112.7799197727098</v>
       </c>
       <c r="I32" t="n">
-        <v>106.336457300071</v>
+        <v>112.7799197727098</v>
       </c>
       <c r="J32" t="n">
-        <v>106.336457300071</v>
+        <v>0</v>
       </c>
       <c r="K32" t="n">
         <v>0</v>
@@ -29782,40 +29782,40 @@
         <v>0</v>
       </c>
       <c r="N32" t="n">
-        <v>106.336457300071</v>
+        <v>112.7799197727098</v>
       </c>
       <c r="O32" t="n">
         <v>0</v>
       </c>
       <c r="P32" t="n">
-        <v>106.336457300071</v>
+        <v>112.7799197727098</v>
       </c>
       <c r="Q32" t="n">
-        <v>0</v>
+        <v>43.4950968316021</v>
       </c>
       <c r="R32" t="n">
-        <v>86.27291196566406</v>
+        <v>37.61298457733328</v>
       </c>
       <c r="S32" t="n">
-        <v>106.336457300071</v>
+        <v>112.7799197727098</v>
       </c>
       <c r="T32" t="n">
-        <v>106.336457300071</v>
+        <v>112.7799197727098</v>
       </c>
       <c r="U32" t="n">
-        <v>106.336457300071</v>
+        <v>112.7799197727098</v>
       </c>
       <c r="V32" t="n">
-        <v>106.336457300071</v>
+        <v>112.7799197727098</v>
       </c>
       <c r="W32" t="n">
-        <v>106.336457300071</v>
+        <v>112.7799197727098</v>
       </c>
       <c r="X32" t="n">
-        <v>106.336457300071</v>
+        <v>112.7799197727098</v>
       </c>
       <c r="Y32" t="n">
-        <v>106.336457300071</v>
+        <v>112.7799197727098</v>
       </c>
     </row>
     <row r="33">
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>106.336457300071</v>
+        <v>112.7799197727098</v>
       </c>
       <c r="C34" t="n">
-        <v>106.336457300071</v>
+        <v>112.7799197727098</v>
       </c>
       <c r="D34" t="n">
-        <v>106.336457300071</v>
+        <v>112.7799197727098</v>
       </c>
       <c r="E34" t="n">
-        <v>106.336457300071</v>
+        <v>112.7799197727098</v>
       </c>
       <c r="F34" t="n">
-        <v>106.336457300071</v>
+        <v>112.7799197727098</v>
       </c>
       <c r="G34" t="n">
-        <v>106.336457300071</v>
+        <v>112.7799197727098</v>
       </c>
       <c r="H34" t="n">
-        <v>106.336457300071</v>
+        <v>112.7799197727098</v>
       </c>
       <c r="I34" t="n">
-        <v>106.336457300071</v>
+        <v>112.7799197727098</v>
       </c>
       <c r="J34" t="n">
-        <v>106.336457300071</v>
+        <v>112.7799197727098</v>
       </c>
       <c r="K34" t="n">
-        <v>106.336457300071</v>
+        <v>0</v>
       </c>
       <c r="L34" t="n">
-        <v>106.336457300071</v>
+        <v>0</v>
       </c>
       <c r="M34" t="n">
-        <v>106.336457300071</v>
+        <v>0</v>
       </c>
       <c r="N34" t="n">
         <v>0</v>
       </c>
       <c r="O34" t="n">
-        <v>0</v>
+        <v>112.7799197727098</v>
       </c>
       <c r="P34" t="n">
-        <v>106.336457300071</v>
+        <v>106.8683420224747</v>
       </c>
       <c r="Q34" t="n">
-        <v>18.71446861253982</v>
+        <v>112.7799197727098</v>
       </c>
       <c r="R34" t="n">
-        <v>106.336457300071</v>
+        <v>112.7799197727098</v>
       </c>
       <c r="S34" t="n">
-        <v>106.336457300071</v>
+        <v>112.7799197727098</v>
       </c>
       <c r="T34" t="n">
-        <v>106.336457300071</v>
+        <v>112.7799197727098</v>
       </c>
       <c r="U34" t="n">
-        <v>106.336457300071</v>
+        <v>112.7799197727098</v>
       </c>
       <c r="V34" t="n">
-        <v>106.336457300071</v>
+        <v>112.7799197727098</v>
       </c>
       <c r="W34" t="n">
-        <v>106.336457300071</v>
+        <v>112.7799197727098</v>
       </c>
       <c r="X34" t="n">
-        <v>106.336457300071</v>
+        <v>112.7799197727098</v>
       </c>
       <c r="Y34" t="n">
-        <v>106.336457300071</v>
+        <v>112.7799197727098</v>
       </c>
     </row>
     <row r="35">
@@ -30165,7 +30165,7 @@
         <v>130.3599693155844</v>
       </c>
       <c r="J37" t="n">
-        <v>35.71049010668771</v>
+        <v>30.07448747215907</v>
       </c>
       <c r="K37" t="n">
         <v>0</v>
@@ -30174,19 +30174,19 @@
         <v>0</v>
       </c>
       <c r="M37" t="n">
+        <v>0</v>
+      </c>
+      <c r="N37" t="n">
+        <v>0</v>
+      </c>
+      <c r="O37" t="n">
+        <v>0</v>
+      </c>
+      <c r="P37" t="n">
         <v>130.3599693155844</v>
       </c>
-      <c r="N37" t="n">
-        <v>0</v>
-      </c>
-      <c r="O37" t="n">
-        <v>0</v>
-      </c>
-      <c r="P37" t="n">
-        <v>0</v>
-      </c>
       <c r="Q37" t="n">
-        <v>0</v>
+        <v>5.636002634529005</v>
       </c>
       <c r="R37" t="n">
         <v>122.6619794737488</v>
@@ -30402,7 +30402,7 @@
         <v>130.3599693155844</v>
       </c>
       <c r="J40" t="n">
-        <v>35.71049010668774</v>
+        <v>30.07448747215907</v>
       </c>
       <c r="K40" t="n">
         <v>0</v>
@@ -30411,7 +30411,7 @@
         <v>130.3599693155844</v>
       </c>
       <c r="M40" t="n">
-        <v>0</v>
+        <v>5.636002634529177</v>
       </c>
       <c r="N40" t="n">
         <v>0</v>
@@ -30660,10 +30660,10 @@
         <v>0</v>
       </c>
       <c r="Q43" t="n">
-        <v>0</v>
+        <v>5.636002634528086</v>
       </c>
       <c r="R43" t="n">
-        <v>128.2979821082779</v>
+        <v>122.6619794737488</v>
       </c>
       <c r="S43" t="n">
         <v>130.3599693155844</v>
@@ -30694,28 +30694,28 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="C44" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="D44" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="E44" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="F44" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="G44" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="H44" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="I44" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -30745,25 +30745,25 @@
         <v>37.61298457733328</v>
       </c>
       <c r="S44" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="T44" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="U44" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="V44" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="W44" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="X44" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="Y44" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
     </row>
     <row r="45">
@@ -30852,46 +30852,46 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="C46" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="D46" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="E46" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="F46" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="G46" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="H46" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="I46" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="J46" t="n">
-        <v>130.3599693155844</v>
+        <v>30.07448747215907</v>
       </c>
       <c r="K46" t="n">
-        <v>28.01250026485259</v>
+        <v>0</v>
       </c>
       <c r="L46" t="n">
         <v>0</v>
       </c>
       <c r="M46" t="n">
-        <v>0</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="N46" t="n">
         <v>0</v>
       </c>
       <c r="O46" t="n">
-        <v>0</v>
+        <v>5.636002634529945</v>
       </c>
       <c r="P46" t="n">
         <v>0</v>
@@ -30900,28 +30900,28 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>130.3599693155844</v>
+        <v>122.6619794737488</v>
       </c>
       <c r="S46" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="T46" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="U46" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="V46" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="W46" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="X46" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="Y46" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
     </row>
   </sheetData>
@@ -34702,13 +34702,13 @@
         <v>362.6084404317796</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>498.303324968211</v>
       </c>
       <c r="M2" t="n">
-        <v>314.7644492377678</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>533.1427107449111</v>
+        <v>64.27678509188662</v>
       </c>
       <c r="O2" t="n">
         <v>444.4844453457863</v>
@@ -34717,7 +34717,7 @@
         <v>351.7045375065877</v>
       </c>
       <c r="Q2" t="n">
-        <v>0</v>
+        <v>186.7126870110591</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
@@ -34775,28 +34775,28 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>114.2575577977044</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>326.6735356069732</v>
+        <v>488.450591816478</v>
       </c>
       <c r="M3" t="n">
-        <v>543.6957424344369</v>
+        <v>518.790584454231</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>518.790584454231</v>
       </c>
       <c r="O3" t="n">
-        <v>521.7376591828091</v>
+        <v>518.790584454231</v>
       </c>
       <c r="P3" t="n">
-        <v>409.7185542589873</v>
+        <v>9.378756902228677</v>
       </c>
       <c r="Q3" t="n">
-        <v>236.7324157120106</v>
+        <v>0</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34942,19 +34942,19 @@
         <v>498.303324968211</v>
       </c>
       <c r="M5" t="n">
-        <v>543.6957424344369</v>
+        <v>64.27678509188662</v>
       </c>
       <c r="N5" t="n">
-        <v>157.6126300866189</v>
+        <v>0</v>
       </c>
       <c r="O5" t="n">
         <v>444.4844453457863</v>
       </c>
       <c r="P5" t="n">
-        <v>0</v>
+        <v>351.7045375065877</v>
       </c>
       <c r="Q5" t="n">
-        <v>0</v>
+        <v>186.7126870110591</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -35012,28 +35012,28 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>114.2575577977044</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
         <v>322.9688344062893</v>
       </c>
       <c r="L6" t="n">
-        <v>488.450591816478</v>
+        <v>0</v>
       </c>
       <c r="M6" t="n">
-        <v>543.6957424344369</v>
+        <v>283.9325445076609</v>
       </c>
       <c r="N6" t="n">
-        <v>36.99176856701508</v>
+        <v>518.790584454231</v>
       </c>
       <c r="O6" t="n">
-        <v>0</v>
+        <v>518.790584454231</v>
       </c>
       <c r="P6" t="n">
         <v>409.7185542589873</v>
       </c>
       <c r="Q6" t="n">
-        <v>236.7324157120106</v>
+        <v>0</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35173,7 +35173,7 @@
         <v>0</v>
       </c>
       <c r="K8" t="n">
-        <v>0</v>
+        <v>362.6084404317796</v>
       </c>
       <c r="L8" t="n">
         <v>498.303324968211</v>
@@ -35185,13 +35185,13 @@
         <v>533.1427107449111</v>
       </c>
       <c r="O8" t="n">
-        <v>444.4844453457863</v>
+        <v>0</v>
       </c>
       <c r="P8" t="n">
-        <v>314.3065239219563</v>
+        <v>209.4698418249039</v>
       </c>
       <c r="Q8" t="n">
-        <v>0</v>
+        <v>186.7126870110591</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -35252,16 +35252,16 @@
         <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>322.9688344062893</v>
+        <v>0</v>
       </c>
       <c r="L9" t="n">
         <v>488.450591816478</v>
       </c>
       <c r="M9" t="n">
-        <v>362.1450102553815</v>
+        <v>93.7017183923758</v>
       </c>
       <c r="N9" t="n">
-        <v>0</v>
+        <v>591.4121262692951</v>
       </c>
       <c r="O9" t="n">
         <v>521.7376591828091</v>
@@ -35425,7 +35425,7 @@
         <v>444.4844453457863</v>
       </c>
       <c r="P11" t="n">
-        <v>351.7045375065879</v>
+        <v>351.7045375065877</v>
       </c>
       <c r="Q11" t="n">
         <v>186.7126870110591</v>
@@ -35486,28 +35486,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>114.2575577977044</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>322.9688344062893</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
         <v>488.450591816478</v>
       </c>
       <c r="M12" t="n">
-        <v>0</v>
+        <v>634.1127774006881</v>
       </c>
       <c r="N12" t="n">
         <v>662.4019911217769</v>
       </c>
       <c r="O12" t="n">
-        <v>107.2231205187088</v>
+        <v>521.7376591828091</v>
       </c>
       <c r="P12" t="n">
-        <v>409.7185542589873</v>
+        <v>35.05004611020335</v>
       </c>
       <c r="Q12" t="n">
-        <v>236.7324157120106</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35565,28 +35565,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>41.00382492257291</v>
+        <v>41.00382492257281</v>
       </c>
       <c r="K13" t="n">
-        <v>153.739970081542</v>
+        <v>153.7399700815419</v>
       </c>
       <c r="L13" t="n">
-        <v>236.863807216752</v>
+        <v>236.8638072167519</v>
       </c>
       <c r="M13" t="n">
-        <v>259.2516238475239</v>
+        <v>259.2516238475238</v>
       </c>
       <c r="N13" t="n">
-        <v>256.1183467696908</v>
+        <v>256.1183467696907</v>
       </c>
       <c r="O13" t="n">
-        <v>235.4265619318109</v>
+        <v>235.4265619318107</v>
       </c>
       <c r="P13" t="n">
-        <v>192.1653485326901</v>
+        <v>192.16534853269</v>
       </c>
       <c r="Q13" t="n">
-        <v>74.53507640488446</v>
+        <v>74.53507640488436</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35732,16 +35732,16 @@
         <v>488.450591816478</v>
       </c>
       <c r="M15" t="n">
-        <v>247.8874524576764</v>
+        <v>634.1127774006881</v>
       </c>
       <c r="N15" t="n">
-        <v>0</v>
+        <v>23.49322931597588</v>
       </c>
       <c r="O15" t="n">
         <v>521.7376591828091</v>
       </c>
       <c r="P15" t="n">
-        <v>409.7185542589873</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
         <v>236.7324157120106</v>
@@ -35802,28 +35802,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>41.00382492257291</v>
+        <v>41.0038249225728</v>
       </c>
       <c r="K16" t="n">
-        <v>153.739970081542</v>
+        <v>153.7399700815419</v>
       </c>
       <c r="L16" t="n">
-        <v>236.863807216752</v>
+        <v>236.8638072167519</v>
       </c>
       <c r="M16" t="n">
-        <v>259.2516238475239</v>
+        <v>259.2516238475238</v>
       </c>
       <c r="N16" t="n">
-        <v>256.1183467696908</v>
+        <v>256.1183467696907</v>
       </c>
       <c r="O16" t="n">
-        <v>235.4265619318109</v>
+        <v>235.4265619318107</v>
       </c>
       <c r="P16" t="n">
-        <v>192.1653485326901</v>
+        <v>192.16534853269</v>
       </c>
       <c r="Q16" t="n">
-        <v>74.53507640488446</v>
+        <v>74.53507640488435</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35960,16 +35960,16 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>114.2575577977044</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>322.9688344062893</v>
       </c>
       <c r="L18" t="n">
-        <v>488.450591816478</v>
+        <v>73.93605315237758</v>
       </c>
       <c r="M18" t="n">
-        <v>634.1127774006881</v>
+        <v>0</v>
       </c>
       <c r="N18" t="n">
         <v>662.4019911217769</v>
@@ -35978,10 +35978,10 @@
         <v>521.7376591828091</v>
       </c>
       <c r="P18" t="n">
-        <v>35.05004611020335</v>
+        <v>409.7185542589873</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>236.7324157120106</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36039,16 +36039,16 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>100.2854818434253</v>
+        <v>0</v>
       </c>
       <c r="K19" t="n">
-        <v>82.66165768680997</v>
+        <v>213.0216270023944</v>
       </c>
       <c r="L19" t="n">
-        <v>165.78549482202</v>
+        <v>171.4214974565479</v>
       </c>
       <c r="M19" t="n">
-        <v>223.8838015594797</v>
+        <v>188.1733114527919</v>
       </c>
       <c r="N19" t="n">
         <v>185.0400343749588</v>
@@ -36136,7 +36136,7 @@
         <v>444.4844453457863</v>
       </c>
       <c r="P20" t="n">
-        <v>351.7045375065877</v>
+        <v>351.7045375065879</v>
       </c>
       <c r="Q20" t="n">
         <v>186.7126870110591</v>
@@ -36197,7 +36197,7 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>114.2575577977044</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
         <v>322.9688344062893</v>
@@ -36206,13 +36206,13 @@
         <v>488.450591816478</v>
       </c>
       <c r="M21" t="n">
-        <v>107.2231205187088</v>
+        <v>0</v>
       </c>
       <c r="N21" t="n">
-        <v>662.4019911217769</v>
+        <v>362.1450102553808</v>
       </c>
       <c r="O21" t="n">
-        <v>0</v>
+        <v>521.7376591828091</v>
       </c>
       <c r="P21" t="n">
         <v>409.7185542589873</v>
@@ -36279,7 +36279,7 @@
         <v>0</v>
       </c>
       <c r="K22" t="n">
-        <v>213.0216270023944</v>
+        <v>82.66165768680997</v>
       </c>
       <c r="L22" t="n">
         <v>165.78549482202</v>
@@ -36291,7 +36291,7 @@
         <v>185.0400343749588</v>
       </c>
       <c r="O22" t="n">
-        <v>164.3482495370789</v>
+        <v>294.7082188526633</v>
       </c>
       <c r="P22" t="n">
         <v>121.0870361379582</v>
@@ -36300,7 +36300,7 @@
         <v>3.456764010152483</v>
       </c>
       <c r="R22" t="n">
-        <v>5.636002634529095</v>
+        <v>5.636002634527716</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -36440,16 +36440,16 @@
         <v>322.9688344062893</v>
       </c>
       <c r="L24" t="n">
-        <v>488.450591816478</v>
+        <v>216.4828246711707</v>
       </c>
       <c r="M24" t="n">
-        <v>0</v>
+        <v>634.1127774006881</v>
       </c>
       <c r="N24" t="n">
-        <v>662.4019911217769</v>
+        <v>0</v>
       </c>
       <c r="O24" t="n">
-        <v>221.4806783164134</v>
+        <v>521.7376591828091</v>
       </c>
       <c r="P24" t="n">
         <v>409.7185542589873</v>
@@ -36513,7 +36513,7 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>5.636002634529037</v>
+        <v>0</v>
       </c>
       <c r="K25" t="n">
         <v>82.66165768680997</v>
@@ -36531,13 +36531,13 @@
         <v>164.3482495370789</v>
       </c>
       <c r="P25" t="n">
-        <v>251.4470054535425</v>
+        <v>121.0870361379582</v>
       </c>
       <c r="Q25" t="n">
-        <v>3.456764010152483</v>
+        <v>131.7547461184291</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>7.697989841835664</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -36592,31 +36592,31 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>240.1021562004054</v>
+        <v>146.110881726089</v>
       </c>
       <c r="K26" t="n">
-        <v>456.5997149060961</v>
+        <v>362.6084404317796</v>
       </c>
       <c r="L26" t="n">
-        <v>528.5755626272231</v>
+        <v>592.2945994425274</v>
       </c>
       <c r="M26" t="n">
         <v>645.507335125408</v>
       </c>
       <c r="N26" t="n">
-        <v>533.1427107449111</v>
+        <v>627.1339852192276</v>
       </c>
       <c r="O26" t="n">
-        <v>444.4844453457863</v>
+        <v>474.756683004799</v>
       </c>
       <c r="P26" t="n">
         <v>445.6958119809042</v>
       </c>
       <c r="Q26" t="n">
-        <v>280.7039614853756</v>
+        <v>280.7039614853755</v>
       </c>
       <c r="R26" t="n">
-        <v>56.37828989698318</v>
+        <v>56.37828989698316</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36677,13 +36677,13 @@
         <v>322.9688344062893</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>488.450591816478</v>
       </c>
       <c r="M27" t="n">
-        <v>188.1936109500817</v>
+        <v>0</v>
       </c>
       <c r="N27" t="n">
-        <v>662.4019911217769</v>
+        <v>598.8774259673912</v>
       </c>
       <c r="O27" t="n">
         <v>521.7376591828091</v>
@@ -36692,7 +36692,7 @@
         <v>409.7185542589873</v>
       </c>
       <c r="Q27" t="n">
-        <v>236.7324157120106</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36750,19 +36750,19 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>63.91678700215738</v>
+        <v>63.91678700215737</v>
       </c>
       <c r="K28" t="n">
-        <v>176.6529321611263</v>
+        <v>176.6529321611264</v>
       </c>
       <c r="L28" t="n">
-        <v>259.7767692963365</v>
+        <v>259.7767692963364</v>
       </c>
       <c r="M28" t="n">
         <v>282.1645859271084</v>
       </c>
       <c r="N28" t="n">
-        <v>279.0313088492753</v>
+        <v>279.0313088492752</v>
       </c>
       <c r="O28" t="n">
         <v>258.3395240113953</v>
@@ -36771,7 +36771,7 @@
         <v>215.0783106122746</v>
       </c>
       <c r="Q28" t="n">
-        <v>97.44803848446894</v>
+        <v>97.44803848446892</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36829,7 +36829,7 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>240.1021562004054</v>
+        <v>146.110881726089</v>
       </c>
       <c r="K29" t="n">
         <v>456.5997149060961</v>
@@ -36838,22 +36838,22 @@
         <v>592.2945994425274</v>
       </c>
       <c r="M29" t="n">
-        <v>645.507335125408</v>
+        <v>638.1665882070873</v>
       </c>
       <c r="N29" t="n">
         <v>627.1339852192276</v>
       </c>
       <c r="O29" t="n">
-        <v>444.4844453457863</v>
+        <v>538.4757198201028</v>
       </c>
       <c r="P29" t="n">
-        <v>351.7045375065877</v>
+        <v>445.6958119809042</v>
       </c>
       <c r="Q29" t="n">
-        <v>216.9849246700714</v>
+        <v>186.7126870110591</v>
       </c>
       <c r="R29" t="n">
-        <v>56.37828989698318</v>
+        <v>0</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36914,13 +36914,13 @@
         <v>322.9688344062893</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>488.450591816478</v>
       </c>
       <c r="M30" t="n">
-        <v>73.9360531523773</v>
+        <v>247.8874524576761</v>
       </c>
       <c r="N30" t="n">
-        <v>662.4019911217769</v>
+        <v>0</v>
       </c>
       <c r="O30" t="n">
         <v>521.7376591828091</v>
@@ -37066,7 +37066,7 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>252.44733902616</v>
+        <v>146.110881726089</v>
       </c>
       <c r="K32" t="n">
         <v>362.6084404317796</v>
@@ -37078,19 +37078,19 @@
         <v>551.5160606510915</v>
       </c>
       <c r="N32" t="n">
-        <v>639.4791680449821</v>
+        <v>645.922630517621</v>
       </c>
       <c r="O32" t="n">
         <v>444.4844453457863</v>
       </c>
       <c r="P32" t="n">
-        <v>458.0409948066587</v>
+        <v>464.4844572792975</v>
       </c>
       <c r="Q32" t="n">
-        <v>186.7126870110591</v>
+        <v>230.2077838426612</v>
       </c>
       <c r="R32" t="n">
-        <v>48.65992738833079</v>
+        <v>0</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37145,7 +37145,7 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>114.2575577977044</v>
+        <v>0</v>
       </c>
       <c r="K33" t="n">
         <v>322.9688344062893</v>
@@ -37154,10 +37154,10 @@
         <v>488.450591816478</v>
       </c>
       <c r="M33" t="n">
-        <v>247.8874524576764</v>
+        <v>0</v>
       </c>
       <c r="N33" t="n">
-        <v>0</v>
+        <v>362.1450102553811</v>
       </c>
       <c r="O33" t="n">
         <v>521.7376591828091</v>
@@ -37224,28 +37224,28 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>76.26196982791191</v>
+        <v>82.70543230055077</v>
       </c>
       <c r="K34" t="n">
-        <v>188.998114986881</v>
+        <v>82.66165768680997</v>
       </c>
       <c r="L34" t="n">
-        <v>272.121952122091</v>
+        <v>165.78549482202</v>
       </c>
       <c r="M34" t="n">
-        <v>294.509768752863</v>
+        <v>188.1733114527919</v>
       </c>
       <c r="N34" t="n">
         <v>185.0400343749588</v>
       </c>
       <c r="O34" t="n">
-        <v>164.3482495370789</v>
+        <v>277.1281693097887</v>
       </c>
       <c r="P34" t="n">
-        <v>227.4234934380291</v>
+        <v>227.9553781604329</v>
       </c>
       <c r="Q34" t="n">
-        <v>22.1712326226923</v>
+        <v>116.2366837828623</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37382,19 +37382,19 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>114.2575577977044</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>322.9688344062893</v>
       </c>
       <c r="L36" t="n">
         <v>488.450591816478</v>
       </c>
       <c r="M36" t="n">
-        <v>634.1127774006881</v>
+        <v>247.8874524576764</v>
       </c>
       <c r="N36" t="n">
-        <v>287.7334829729927</v>
+        <v>0</v>
       </c>
       <c r="O36" t="n">
         <v>521.7376591828091</v>
@@ -37403,7 +37403,7 @@
         <v>409.7185542589873</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>236.7324157120106</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37461,7 +37461,7 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>5.636002634528635</v>
+        <v>0</v>
       </c>
       <c r="K37" t="n">
         <v>82.66165768680997</v>
@@ -37470,7 +37470,7 @@
         <v>165.78549482202</v>
       </c>
       <c r="M37" t="n">
-        <v>318.5332807683764</v>
+        <v>188.1733114527919</v>
       </c>
       <c r="N37" t="n">
         <v>185.0400343749588</v>
@@ -37479,10 +37479,10 @@
         <v>164.3482495370789</v>
       </c>
       <c r="P37" t="n">
-        <v>121.0870361379582</v>
+        <v>251.4470054535425</v>
       </c>
       <c r="Q37" t="n">
-        <v>3.456764010152483</v>
+        <v>9.092766644681488</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37558,7 +37558,7 @@
         <v>444.4844453457863</v>
       </c>
       <c r="P38" t="n">
-        <v>351.7045375065879</v>
+        <v>351.7045375065877</v>
       </c>
       <c r="Q38" t="n">
         <v>186.7126870110591</v>
@@ -37698,16 +37698,16 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>5.636002634528664</v>
+        <v>0</v>
       </c>
       <c r="K40" t="n">
         <v>82.66165768680997</v>
       </c>
       <c r="L40" t="n">
-        <v>296.1454641376044</v>
+        <v>296.1454641376043</v>
       </c>
       <c r="M40" t="n">
-        <v>188.1733114527919</v>
+        <v>193.8093140873211</v>
       </c>
       <c r="N40" t="n">
         <v>185.0400343749588</v>
@@ -37856,7 +37856,7 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>114.2575577977044</v>
       </c>
       <c r="K42" t="n">
         <v>322.9688344062893</v>
@@ -37865,13 +37865,13 @@
         <v>488.450591816478</v>
       </c>
       <c r="M42" t="n">
-        <v>634.1127774006881</v>
+        <v>247.8874524576764</v>
       </c>
       <c r="N42" t="n">
-        <v>249.769892037502</v>
+        <v>0</v>
       </c>
       <c r="O42" t="n">
-        <v>0</v>
+        <v>521.7376591828091</v>
       </c>
       <c r="P42" t="n">
         <v>409.7185542589873</v>
@@ -37956,10 +37956,10 @@
         <v>121.0870361379582</v>
       </c>
       <c r="Q43" t="n">
-        <v>3.456764010152483</v>
+        <v>9.092766644680569</v>
       </c>
       <c r="R43" t="n">
-        <v>5.636002634529095</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
@@ -38093,7 +38093,7 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>114.2575577977044</v>
       </c>
       <c r="K45" t="n">
         <v>322.9688344062893</v>
@@ -38102,7 +38102,7 @@
         <v>488.450591816478</v>
       </c>
       <c r="M45" t="n">
-        <v>362.1450102553808</v>
+        <v>247.8874524576764</v>
       </c>
       <c r="N45" t="n">
         <v>0</v>
@@ -38172,22 +38172,22 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>100.2854818434253</v>
+        <v>0</v>
       </c>
       <c r="K46" t="n">
-        <v>110.6741579516626</v>
+        <v>82.66165768680997</v>
       </c>
       <c r="L46" t="n">
         <v>165.78549482202</v>
       </c>
       <c r="M46" t="n">
-        <v>188.1733114527919</v>
+        <v>318.5332807683762</v>
       </c>
       <c r="N46" t="n">
         <v>185.0400343749588</v>
       </c>
       <c r="O46" t="n">
-        <v>164.3482495370789</v>
+        <v>169.9842521716088</v>
       </c>
       <c r="P46" t="n">
         <v>121.0870361379582</v>
@@ -38196,7 +38196,7 @@
         <v>3.456764010152483</v>
       </c>
       <c r="R46" t="n">
-        <v>7.697989841835579</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
